--- a/LifespanDesign/.templates/threshold_values.xlsx
+++ b/LifespanDesign/.templates/threshold_values.xlsx
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="83">
   <si>
     <t>Flow depth</t>
   </si>
@@ -194,9 +194,6 @@
     <t>bedrock, hillside</t>
   </si>
   <si>
-    <t>tributary channel, tributary delta</t>
-  </si>
-  <si>
     <t>na</t>
   </si>
   <si>
@@ -225,9 +222,6 @@
   </si>
   <si>
     <t>bank, floodplain, high floodplain, island-floodplain, island high floodplain, in-channel bar, lateral bar, levee, spur dike, terrace</t>
-  </si>
-  <si>
-    <t>riffle, riffle transition, pool, floodplain, island floodplain, in-channel bar, lateral bar, medial bar, run</t>
   </si>
   <si>
     <t>agriplain, backswamp, mining pit, pond, slackwater</t>
@@ -526,7 +520,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="163">
+  <borders count="162">
     <border>
       <left/>
       <right/>
@@ -2539,17 +2533,6 @@
       <right style="thin">
         <color theme="3" tint="0.39976195562608724"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -2834,7 +2817,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="300">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3525,16 +3508,13 @@
     <xf numFmtId="2" fontId="5" fillId="3" borderId="141" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="11" borderId="142" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="143" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="11" borderId="143" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="14" fillId="11" borderId="144" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="11" borderId="145" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3543,53 +3523,53 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="145" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="145" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="147" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="147" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="148" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="149" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="153" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="152" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="153" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="154" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="155" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="154" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="155" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="156" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="153" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="154" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="155" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="156" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="156" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="155" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="157" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="158" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="159" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="160" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="158" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="161" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="159" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="157" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="160" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3619,8 +3599,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="162" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="161" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="157" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="158" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="160" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3640,19 +3629,22 @@
     <xf numFmtId="0" fontId="14" fillId="11" borderId="57" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="157" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="156" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="149" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="150" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="151" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="152" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="149" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="150" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3661,7 +3653,7 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="151" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="152" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="149" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="150" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3670,7 +3662,7 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="151" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="152" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="149" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="150" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3678,18 +3670,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="151" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="152" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="158" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="159" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="161" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3988,7 +3968,7 @@
   <dimension ref="B1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4015,168 +3995,168 @@
   <sheetData>
     <row r="1" spans="2:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E2" s="285" t="s">
+      <c r="E2" s="287" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="288"/>
+      <c r="G2" s="288"/>
+      <c r="H2" s="288"/>
+      <c r="I2" s="289"/>
+      <c r="J2" s="290" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="291"/>
+      <c r="L2" s="291"/>
+      <c r="M2" s="292"/>
+      <c r="N2" s="293" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="286"/>
-      <c r="G2" s="286"/>
-      <c r="H2" s="286"/>
-      <c r="I2" s="287"/>
-      <c r="J2" s="288" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="289"/>
-      <c r="L2" s="289"/>
-      <c r="M2" s="290"/>
-      <c r="N2" s="291" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="292"/>
-      <c r="P2" s="293"/>
-      <c r="Q2" s="294" t="s">
-        <v>76</v>
-      </c>
-      <c r="R2" s="295"/>
-      <c r="S2" s="296"/>
+      <c r="O2" s="294"/>
+      <c r="P2" s="295"/>
+      <c r="Q2" s="296" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" s="297"/>
+      <c r="S2" s="298"/>
     </row>
     <row r="3" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="251"/>
-      <c r="C3" s="252" t="s">
+      <c r="B3" s="250"/>
+      <c r="C3" s="251" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="253" t="s">
+      <c r="D3" s="252" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="254"/>
-      <c r="F3" s="255"/>
-      <c r="G3" s="255"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="257"/>
-      <c r="J3" s="258"/>
-      <c r="K3" s="259"/>
-      <c r="L3" s="259"/>
-      <c r="M3" s="260"/>
-      <c r="N3" s="254"/>
-      <c r="O3" s="256"/>
-      <c r="P3" s="261"/>
-      <c r="Q3" s="283" t="s">
+      <c r="E3" s="253"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="255"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="257"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="258"/>
+      <c r="M3" s="259"/>
+      <c r="N3" s="253"/>
+      <c r="O3" s="255"/>
+      <c r="P3" s="260"/>
+      <c r="Q3" s="285" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="284"/>
-      <c r="S3" s="276" t="s">
-        <v>79</v>
+      <c r="R3" s="286"/>
+      <c r="S3" s="275" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="267" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="268" t="s">
+      <c r="B4" s="266" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="267" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="269" t="s">
+      <c r="D4" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="270" t="s">
+      <c r="E4" s="269" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="270" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="270" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="271" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="272" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="269" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="270" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="270" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="273" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="269" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="271" t="s">
+        <v>80</v>
+      </c>
+      <c r="P4" s="272" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q4" s="274" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="271" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="271" t="s">
+      <c r="R4" s="267" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="272" t="s">
-        <v>80</v>
-      </c>
-      <c r="I4" s="273" t="s">
-        <v>81</v>
-      </c>
-      <c r="J4" s="270" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="271" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="271" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4" s="274" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" s="270" t="s">
-        <v>74</v>
-      </c>
-      <c r="O4" s="272" t="s">
+      <c r="S4" s="272" t="s">
         <v>82</v>
-      </c>
-      <c r="P4" s="273" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q4" s="275" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" s="268" t="s">
-        <v>51</v>
-      </c>
-      <c r="S4" s="273" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="262" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="263" t="s">
+      <c r="B5" s="261" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="262" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="264" t="s">
+      <c r="D5" s="263" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="297" t="s">
+      <c r="E5" s="276" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="277" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="277" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="298" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="298" t="s">
+      <c r="H5" s="277" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="278" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="264" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="262" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="262" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="265" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" s="276" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" s="277" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" s="278" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q5" s="276" t="s">
+        <v>58</v>
+      </c>
+      <c r="R5" s="277" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="298" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="299" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="265" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="263" t="s">
-        <v>63</v>
-      </c>
-      <c r="L5" s="263" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="266" t="s">
-        <v>65</v>
-      </c>
-      <c r="N5" s="297" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" s="298" t="s">
-        <v>66</v>
-      </c>
-      <c r="P5" s="299" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q5" s="297" t="s">
-        <v>60</v>
-      </c>
-      <c r="R5" s="298" t="s">
-        <v>61</v>
-      </c>
-      <c r="S5" s="299" t="s">
-        <v>58</v>
+      <c r="S5" s="278" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
@@ -4211,22 +4191,22 @@
         <v>0.1</v>
       </c>
       <c r="N6" s="233"/>
-      <c r="O6" s="234">
+      <c r="O6" s="231">
         <v>4.7E-2</v>
       </c>
-      <c r="P6" s="235"/>
+      <c r="P6" s="234"/>
       <c r="Q6" s="229">
         <v>4.7E-2</v>
       </c>
-      <c r="R6" s="236">
+      <c r="R6" s="235">
         <v>4.7E-2</v>
       </c>
-      <c r="S6" s="237">
+      <c r="S6" s="236">
         <v>0.03</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="238" t="s">
+      <c r="B7" s="237" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -4252,7 +4232,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N7" s="178"/>
       <c r="O7" s="54"/>
@@ -4264,7 +4244,7 @@
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="239" t="s">
+      <c r="B8" s="238" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -4305,7 +4285,7 @@
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="240" t="s">
+      <c r="B9" s="239" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -4333,7 +4313,7 @@
       <c r="S9" s="204"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="241" t="s">
+      <c r="B10" s="240" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -4361,7 +4341,7 @@
       <c r="S10" s="205"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="238" t="s">
+      <c r="B11" s="237" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -4388,7 +4368,6 @@
         <v>2.1</v>
       </c>
       <c r="N11" s="185">
-        <f>1.7*2</f>
         <v>3.4</v>
       </c>
       <c r="O11" s="54"/>
@@ -4398,7 +4377,7 @@
       <c r="S11" s="206"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="239" t="s">
+      <c r="B12" s="238" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -4428,7 +4407,7 @@
       <c r="S12" s="207"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="242" t="s">
+      <c r="B13" s="241" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="77" t="s">
@@ -4456,7 +4435,7 @@
       <c r="S13" s="208"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B14" s="243" t="s">
+      <c r="B14" s="242" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="78" t="s">
@@ -4485,8 +4464,8 @@
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="242" t="s">
-        <v>78</v>
+      <c r="B15" s="241" t="s">
+        <v>76</v>
       </c>
       <c r="C15" s="77" t="s">
         <v>2</v>
@@ -4506,7 +4485,7 @@
       <c r="L15" s="40"/>
       <c r="M15" s="161"/>
       <c r="N15" s="186">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O15" s="41">
         <v>20</v>
@@ -4521,7 +4500,7 @@
       <c r="S15" s="211"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B16" s="238" t="s">
+      <c r="B16" s="237" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -4531,37 +4510,35 @@
         <v>17</v>
       </c>
       <c r="E16" s="125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" s="20" t="s">
         <v>34</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I16" s="126"/>
       <c r="J16" s="162"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="163"/>
-      <c r="N16" s="188" t="s">
-        <v>35</v>
-      </c>
+      <c r="N16" s="188"/>
       <c r="O16" s="15"/>
       <c r="P16" s="126"/>
       <c r="Q16" s="212" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R16" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S16" s="213"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B17" s="244" t="s">
+      <c r="B17" s="243" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -4571,37 +4548,35 @@
         <v>17</v>
       </c>
       <c r="E17" s="127" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I17" s="128"/>
       <c r="J17" s="164"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="165"/>
-      <c r="N17" s="189" t="s">
-        <v>46</v>
-      </c>
+      <c r="N17" s="189"/>
       <c r="O17" s="16"/>
       <c r="P17" s="128"/>
       <c r="Q17" s="214" t="s">
+        <v>41</v>
+      </c>
+      <c r="R17" s="26" t="s">
         <v>42</v>
-      </c>
-      <c r="R17" s="26" t="s">
-        <v>43</v>
       </c>
       <c r="S17" s="215"/>
     </row>
     <row r="18" spans="2:19" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="B18" s="245" t="s">
+      <c r="B18" s="244" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="79" t="s">
@@ -4627,9 +4602,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="167"/>
-      <c r="N18" s="190">
-        <v>0</v>
-      </c>
+      <c r="N18" s="190"/>
       <c r="O18" s="17"/>
       <c r="P18" s="130"/>
       <c r="Q18" s="216">
@@ -4641,7 +4614,7 @@
       <c r="S18" s="217"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B19" s="242" t="s">
+      <c r="B19" s="241" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="77" t="s">
@@ -4669,8 +4642,8 @@
       <c r="S19" s="218"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B20" s="246" t="s">
-        <v>41</v>
+      <c r="B20" s="245" t="s">
+        <v>40</v>
       </c>
       <c r="C20" s="90" t="s">
         <v>2</v>
@@ -4697,7 +4670,7 @@
       <c r="S20" s="219"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B21" s="240" t="s">
+      <c r="B21" s="239" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="10" t="s">
@@ -4729,7 +4702,7 @@
       <c r="S21" s="220"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B22" s="247" t="s">
+      <c r="B22" s="246" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="84" t="s">
@@ -4739,8 +4712,8 @@
         <v>10</v>
       </c>
       <c r="E22" s="138">
-        <f>0.1*6</f>
-        <v>0.60000000000000009</v>
+        <f>0.1*3</f>
+        <v>0.30000000000000004</v>
       </c>
       <c r="F22" s="89"/>
       <c r="G22" s="85"/>
@@ -4748,12 +4721,12 @@
         <v>1</v>
       </c>
       <c r="I22" s="140">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J22" s="174"/>
       <c r="K22" s="139">
-        <f>0.8*1.4*6</f>
-        <v>6.7199999999999989</v>
+        <f>0.8*1.4*3</f>
+        <v>3.3599999999999994</v>
       </c>
       <c r="L22" s="87"/>
       <c r="M22" s="175"/>
@@ -4763,65 +4736,65 @@
       <c r="Q22" s="174"/>
       <c r="R22" s="86"/>
       <c r="S22" s="140">
-        <f>0.8*1.4*6</f>
-        <v>6.7199999999999989</v>
+        <f>0.8*1.4*3</f>
+        <v>3.3599999999999994</v>
       </c>
     </row>
     <row r="23" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="248" t="s">
+      <c r="B23" s="247" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="249" t="s">
+      <c r="C23" s="248" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="250" t="s">
+      <c r="D23" s="249" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="141">
-        <f>0.1*6</f>
-        <v>0.60000000000000009</v>
+        <f>0.1*3</f>
+        <v>0.30000000000000004</v>
       </c>
       <c r="F23" s="142"/>
       <c r="G23" s="143">
-        <f>0.1*6</f>
-        <v>0.60000000000000009</v>
+        <f>0.1*3</f>
+        <v>0.30000000000000004</v>
       </c>
       <c r="H23" s="144"/>
       <c r="I23" s="145"/>
       <c r="J23" s="176"/>
       <c r="K23" s="143">
-        <f>0.1*0.8*7*6</f>
-        <v>3.3600000000000003</v>
+        <f>0.1*0.8*7*3</f>
+        <v>1.6800000000000002</v>
       </c>
       <c r="L23" s="143">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M23" s="177">
-        <f>0.1*0.8*7*6</f>
-        <v>3.3600000000000003</v>
+        <f>0.1*0.8*7*3</f>
+        <v>1.6800000000000002</v>
       </c>
       <c r="N23" s="199"/>
       <c r="O23" s="143">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P23" s="200"/>
       <c r="Q23" s="176"/>
       <c r="R23" s="143">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S23" s="177">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:19" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B25" s="278" t="s">
+      <c r="B25" s="280" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="279"/>
-      <c r="D25" s="279"/>
-      <c r="E25" s="279"/>
-      <c r="F25" s="280"/>
+      <c r="C25" s="281"/>
+      <c r="D25" s="281"/>
+      <c r="E25" s="281"/>
+      <c r="F25" s="282"/>
     </row>
     <row r="26" spans="2:19" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="2:19" x14ac:dyDescent="0.3">
@@ -4830,22 +4803,22 @@
       </c>
       <c r="C27" s="98"/>
       <c r="D27" s="98"/>
-      <c r="E27" s="281" t="s">
+      <c r="E27" s="283" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="282"/>
+      <c r="F27" s="284"/>
     </row>
     <row r="28" spans="2:19" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B29" s="97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="96"/>
       <c r="D29" s="96"/>
-      <c r="E29" s="277" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="277"/>
+      <c r="E29" s="279" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="279"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4891,17 +4864,17 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/LifespanDesign/.templates/threshold_values.xlsx
+++ b/LifespanDesign/.templates/threshold_values.xlsx
@@ -311,9 +311,6 @@
     <t>TERRAFORMING</t>
   </si>
   <si>
-    <t>MAINTENANCE</t>
-  </si>
-  <si>
     <t>BIOENGINEERING (OTHER)</t>
   </si>
   <si>
@@ -336,6 +333,9 @@
   </si>
   <si>
     <t>Incorporation of fine sediment</t>
+  </si>
+  <si>
+    <t>CONNECTIVITY</t>
   </si>
 </sst>
 </file>
@@ -3968,7 +3968,7 @@
   <dimension ref="B1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="Q3" sqref="Q3:R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4009,12 +4009,12 @@
       <c r="L2" s="291"/>
       <c r="M2" s="292"/>
       <c r="N2" s="293" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O2" s="294"/>
       <c r="P2" s="295"/>
       <c r="Q2" s="296" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="R2" s="297"/>
       <c r="S2" s="298"/>
@@ -4044,7 +4044,7 @@
       </c>
       <c r="R3" s="286"/>
       <c r="S3" s="275" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="25.5" x14ac:dyDescent="0.3">
@@ -4067,10 +4067,10 @@
         <v>47</v>
       </c>
       <c r="H4" s="271" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="272" t="s">
         <v>78</v>
-      </c>
-      <c r="I4" s="272" t="s">
-        <v>79</v>
       </c>
       <c r="J4" s="269" t="s">
         <v>50</v>
@@ -4088,10 +4088,10 @@
         <v>72</v>
       </c>
       <c r="O4" s="271" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" s="272" t="s">
         <v>80</v>
-      </c>
-      <c r="P4" s="272" t="s">
-        <v>81</v>
       </c>
       <c r="Q4" s="274" t="s">
         <v>48</v>
@@ -4100,7 +4100,7 @@
         <v>49</v>
       </c>
       <c r="S4" s="272" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4465,7 +4465,7 @@
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B15" s="241" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="77" t="s">
         <v>2</v>

--- a/LifespanDesign/.templates/threshold_values.xlsx
+++ b/LifespanDesign/.templates/threshold_values.xlsx
@@ -3056,48 +3056,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3542,87 +3500,129 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="144" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="145" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="150" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="151" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="152" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="154" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="147" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="148" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="149" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="155" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="156" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="157" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="158" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="127" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="128" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="129" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="159" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="144" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="145" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="150" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="151" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="152" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="154" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="147" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="148" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="149" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="155" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="156" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="157" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="158" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="127" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="128" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="129" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="159" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3633,19 +3633,7 @@
     <cellStyle name="Input" xfId="1" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3660,18 +3648,6 @@
         <b/>
         <i val="0"/>
         <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.24994659260841701"/>
       </font>
       <fill>
         <patternFill>
@@ -3703,10 +3679,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D3:D5" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D3:D5" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="D3:D5"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Bool" dataDxfId="3"/>
+    <tableColumn id="1" name="Bool" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3978,7 +3954,7 @@
   <dimension ref="B1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4005,29 +3981,29 @@
   <sheetData>
     <row r="1" spans="2:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E2" s="101" t="s">
+      <c r="E2" s="280" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="104" t="s">
+      <c r="F2" s="281"/>
+      <c r="G2" s="281"/>
+      <c r="H2" s="281"/>
+      <c r="I2" s="282"/>
+      <c r="J2" s="283" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="107" t="s">
+      <c r="K2" s="284"/>
+      <c r="L2" s="284"/>
+      <c r="M2" s="285"/>
+      <c r="N2" s="286" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="108"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="110" t="s">
+      <c r="O2" s="287"/>
+      <c r="P2" s="288"/>
+      <c r="Q2" s="289" t="s">
         <v>79</v>
       </c>
-      <c r="R2" s="111"/>
-      <c r="S2" s="112"/>
+      <c r="R2" s="290"/>
+      <c r="S2" s="291"/>
     </row>
     <row r="3" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="77"/>
@@ -4042,17 +4018,17 @@
       <c r="G3" s="81"/>
       <c r="H3" s="82"/>
       <c r="I3" s="83"/>
-      <c r="J3" s="254"/>
-      <c r="K3" s="255"/>
-      <c r="L3" s="255"/>
-      <c r="M3" s="256"/>
+      <c r="J3" s="240"/>
+      <c r="K3" s="241"/>
+      <c r="L3" s="241"/>
+      <c r="M3" s="242"/>
       <c r="N3" s="80"/>
       <c r="O3" s="82"/>
       <c r="P3" s="84"/>
-      <c r="Q3" s="99" t="s">
+      <c r="Q3" s="278" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="100"/>
+      <c r="R3" s="279"/>
       <c r="S3" s="95" t="s">
         <v>74</v>
       </c>
@@ -4082,16 +4058,16 @@
       <c r="I4" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="J4" s="257" t="s">
+      <c r="J4" s="243" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="258" t="s">
+      <c r="K4" s="244" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="258" t="s">
+      <c r="L4" s="244" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="259" t="s">
+      <c r="M4" s="245" t="s">
         <v>51</v>
       </c>
       <c r="N4" s="91" t="s">
@@ -4103,10 +4079,10 @@
       <c r="P4" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="Q4" s="250" t="s">
+      <c r="Q4" s="236" t="s">
         <v>46</v>
       </c>
-      <c r="R4" s="251" t="s">
+      <c r="R4" s="237" t="s">
         <v>47</v>
       </c>
       <c r="S4" s="94" t="s">
@@ -4138,16 +4114,16 @@
       <c r="I5" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="260" t="s">
+      <c r="J5" s="246" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="261" t="s">
+      <c r="K5" s="247" t="s">
         <v>59</v>
       </c>
-      <c r="L5" s="261" t="s">
+      <c r="L5" s="247" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="262" t="s">
+      <c r="M5" s="248" t="s">
         <v>61</v>
       </c>
       <c r="N5" s="96" t="s">
@@ -4159,10 +4135,10 @@
       <c r="P5" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="Q5" s="252" t="s">
+      <c r="Q5" s="238" t="s">
         <v>56</v>
       </c>
-      <c r="R5" s="253" t="s">
+      <c r="R5" s="239" t="s">
         <v>57</v>
       </c>
       <c r="S5" s="98" t="s">
@@ -4179,39 +4155,39 @@
       <c r="D6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="245">
+      <c r="E6" s="231">
         <v>4.7E-2</v>
       </c>
-      <c r="F6" s="246"/>
-      <c r="G6" s="241">
+      <c r="F6" s="232"/>
+      <c r="G6" s="227">
         <v>4.7E-2</v>
       </c>
-      <c r="H6" s="241"/>
-      <c r="I6" s="247">
+      <c r="H6" s="227"/>
+      <c r="I6" s="233">
         <v>4.7E-2</v>
       </c>
-      <c r="J6" s="248">
+      <c r="J6" s="234">
         <v>4.7E-2</v>
       </c>
-      <c r="K6" s="242"/>
-      <c r="L6" s="242">
+      <c r="K6" s="228"/>
+      <c r="L6" s="228">
         <v>4.7E-2</v>
       </c>
-      <c r="M6" s="247">
+      <c r="M6" s="233">
         <v>0.1</v>
       </c>
-      <c r="N6" s="245"/>
-      <c r="O6" s="243">
+      <c r="N6" s="231"/>
+      <c r="O6" s="229">
         <v>4.7E-2</v>
       </c>
-      <c r="P6" s="247"/>
-      <c r="Q6" s="249">
+      <c r="P6" s="233"/>
+      <c r="Q6" s="235">
         <v>4.7E-2</v>
       </c>
-      <c r="R6" s="244">
+      <c r="R6" s="230">
         <v>4.7E-2</v>
       </c>
-      <c r="S6" s="247">
+      <c r="S6" s="233">
         <v>0.03</v>
       </c>
     </row>
@@ -4225,31 +4201,31 @@
       <c r="D7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="233"/>
-      <c r="F7" s="191"/>
-      <c r="G7" s="191">
+      <c r="E7" s="219"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="177">
         <v>7</v>
       </c>
-      <c r="H7" s="193"/>
-      <c r="I7" s="194"/>
-      <c r="J7" s="195">
-        <v>3</v>
-      </c>
-      <c r="K7" s="196">
-        <v>5</v>
-      </c>
-      <c r="L7" s="196">
+      <c r="H7" s="179"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="181">
         <v>1</v>
       </c>
-      <c r="M7" s="197">
+      <c r="K7" s="182">
         <v>1</v>
       </c>
-      <c r="N7" s="234"/>
-      <c r="O7" s="193"/>
-      <c r="P7" s="194"/>
-      <c r="Q7" s="235"/>
-      <c r="R7" s="236"/>
-      <c r="S7" s="194">
+      <c r="L7" s="182">
+        <v>1</v>
+      </c>
+      <c r="M7" s="183">
+        <v>1</v>
+      </c>
+      <c r="N7" s="220"/>
+      <c r="O7" s="179"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="221"/>
+      <c r="R7" s="222"/>
+      <c r="S7" s="180">
         <v>1</v>
       </c>
     </row>
@@ -4263,34 +4239,34 @@
       <c r="D8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="237"/>
-      <c r="F8" s="201"/>
-      <c r="G8" s="201">
+      <c r="E8" s="223"/>
+      <c r="F8" s="187"/>
+      <c r="G8" s="187">
         <v>12</v>
       </c>
-      <c r="H8" s="203"/>
-      <c r="I8" s="204"/>
-      <c r="J8" s="205">
-        <v>6</v>
-      </c>
-      <c r="K8" s="206">
-        <v>10</v>
-      </c>
-      <c r="L8" s="206">
-        <v>5</v>
-      </c>
-      <c r="M8" s="207">
-        <v>5</v>
-      </c>
-      <c r="N8" s="238"/>
-      <c r="O8" s="203"/>
-      <c r="P8" s="204">
+      <c r="H8" s="189"/>
+      <c r="I8" s="190"/>
+      <c r="J8" s="191">
+        <v>7</v>
+      </c>
+      <c r="K8" s="192">
+        <v>7</v>
+      </c>
+      <c r="L8" s="192">
+        <v>7</v>
+      </c>
+      <c r="M8" s="193">
+        <v>7</v>
+      </c>
+      <c r="N8" s="224"/>
+      <c r="O8" s="189"/>
+      <c r="P8" s="190">
         <f>MAX(D8:G8)</f>
         <v>12</v>
       </c>
-      <c r="Q8" s="239"/>
-      <c r="R8" s="240"/>
-      <c r="S8" s="204">
+      <c r="Q8" s="225"/>
+      <c r="R8" s="226"/>
+      <c r="S8" s="190">
         <v>10</v>
       </c>
     </row>
@@ -4304,23 +4280,23 @@
       <c r="D9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="209"/>
-      <c r="F9" s="210">
+      <c r="E9" s="195"/>
+      <c r="F9" s="196">
         <v>17</v>
       </c>
-      <c r="G9" s="210"/>
-      <c r="H9" s="211"/>
-      <c r="I9" s="212"/>
-      <c r="J9" s="213"/>
-      <c r="K9" s="214"/>
-      <c r="L9" s="214"/>
-      <c r="M9" s="215"/>
-      <c r="N9" s="216"/>
-      <c r="O9" s="231"/>
-      <c r="P9" s="217"/>
-      <c r="Q9" s="213"/>
-      <c r="R9" s="218"/>
-      <c r="S9" s="219"/>
+      <c r="G9" s="196"/>
+      <c r="H9" s="197"/>
+      <c r="I9" s="198"/>
+      <c r="J9" s="199"/>
+      <c r="K9" s="200"/>
+      <c r="L9" s="200"/>
+      <c r="M9" s="201"/>
+      <c r="N9" s="202"/>
+      <c r="O9" s="217"/>
+      <c r="P9" s="203"/>
+      <c r="Q9" s="199"/>
+      <c r="R9" s="204"/>
+      <c r="S9" s="205"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B10" s="67" t="s">
@@ -4332,23 +4308,23 @@
       <c r="D10" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="220"/>
-      <c r="F10" s="221">
+      <c r="E10" s="206"/>
+      <c r="F10" s="207">
         <v>25</v>
       </c>
-      <c r="G10" s="221"/>
-      <c r="H10" s="222"/>
-      <c r="I10" s="223"/>
-      <c r="J10" s="224"/>
-      <c r="K10" s="225"/>
-      <c r="L10" s="225"/>
-      <c r="M10" s="226"/>
-      <c r="N10" s="227"/>
-      <c r="O10" s="232"/>
-      <c r="P10" s="228"/>
-      <c r="Q10" s="224"/>
-      <c r="R10" s="229"/>
-      <c r="S10" s="230"/>
+      <c r="G10" s="207"/>
+      <c r="H10" s="208"/>
+      <c r="I10" s="209"/>
+      <c r="J10" s="210"/>
+      <c r="K10" s="211"/>
+      <c r="L10" s="211"/>
+      <c r="M10" s="212"/>
+      <c r="N10" s="213"/>
+      <c r="O10" s="218"/>
+      <c r="P10" s="214"/>
+      <c r="Q10" s="210"/>
+      <c r="R10" s="215"/>
+      <c r="S10" s="216"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B11" s="64" t="s">
@@ -4360,31 +4336,31 @@
       <c r="D11" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="190"/>
-      <c r="F11" s="191"/>
-      <c r="G11" s="192"/>
-      <c r="H11" s="193"/>
-      <c r="I11" s="194"/>
-      <c r="J11" s="195">
+      <c r="E11" s="176"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="178"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="180"/>
+      <c r="J11" s="181">
         <v>1</v>
       </c>
-      <c r="K11" s="196">
+      <c r="K11" s="182">
         <f>1.5*0.2*7</f>
         <v>2.1000000000000005</v>
       </c>
-      <c r="L11" s="196"/>
-      <c r="M11" s="197">
+      <c r="L11" s="182"/>
+      <c r="M11" s="183">
         <f>0.2*7+0.7</f>
         <v>2.1</v>
       </c>
-      <c r="N11" s="190">
+      <c r="N11" s="176">
         <v>3.4</v>
       </c>
-      <c r="O11" s="193"/>
-      <c r="P11" s="194"/>
-      <c r="Q11" s="195"/>
-      <c r="R11" s="198"/>
-      <c r="S11" s="199"/>
+      <c r="O11" s="179"/>
+      <c r="P11" s="180"/>
+      <c r="Q11" s="181"/>
+      <c r="R11" s="184"/>
+      <c r="S11" s="185"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B12" s="65" t="s">
@@ -4396,25 +4372,25 @@
       <c r="D12" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="200">
+      <c r="E12" s="186">
         <v>0.1</v>
       </c>
-      <c r="F12" s="201"/>
-      <c r="G12" s="202"/>
-      <c r="H12" s="203"/>
-      <c r="I12" s="204"/>
-      <c r="J12" s="205"/>
-      <c r="K12" s="206">
+      <c r="F12" s="187"/>
+      <c r="G12" s="188"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="190"/>
+      <c r="J12" s="191"/>
+      <c r="K12" s="192">
         <v>3</v>
       </c>
-      <c r="L12" s="206"/>
-      <c r="M12" s="207"/>
-      <c r="N12" s="200"/>
-      <c r="O12" s="201"/>
-      <c r="P12" s="204"/>
-      <c r="Q12" s="205"/>
-      <c r="R12" s="120"/>
-      <c r="S12" s="208"/>
+      <c r="L12" s="192"/>
+      <c r="M12" s="193"/>
+      <c r="N12" s="186"/>
+      <c r="O12" s="187"/>
+      <c r="P12" s="190"/>
+      <c r="Q12" s="191"/>
+      <c r="R12" s="106"/>
+      <c r="S12" s="194"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B13" s="68" t="s">
@@ -4432,9 +4408,9 @@
       <c r="H13" s="12"/>
       <c r="I13" s="42"/>
       <c r="J13" s="48"/>
-      <c r="K13" s="140"/>
-      <c r="L13" s="140"/>
-      <c r="M13" s="141"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="127"/>
       <c r="N13" s="41">
         <v>1</v>
       </c>
@@ -4454,21 +4430,21 @@
       <c r="D14" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="178"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="180"/>
-      <c r="H14" s="181"/>
-      <c r="I14" s="182"/>
-      <c r="J14" s="183"/>
-      <c r="K14" s="184"/>
-      <c r="L14" s="184"/>
-      <c r="M14" s="185"/>
-      <c r="N14" s="186"/>
-      <c r="O14" s="187"/>
-      <c r="P14" s="182"/>
-      <c r="Q14" s="188"/>
-      <c r="R14" s="189"/>
-      <c r="S14" s="182">
+      <c r="E14" s="164"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="166"/>
+      <c r="H14" s="167"/>
+      <c r="I14" s="168"/>
+      <c r="J14" s="169"/>
+      <c r="K14" s="170"/>
+      <c r="L14" s="170"/>
+      <c r="M14" s="171"/>
+      <c r="N14" s="172"/>
+      <c r="O14" s="173"/>
+      <c r="P14" s="168"/>
+      <c r="Q14" s="174"/>
+      <c r="R14" s="175"/>
+      <c r="S14" s="168">
         <f>0.08/12</f>
         <v>6.6666666666666671E-3</v>
       </c>
@@ -4483,7 +4459,7 @@
       <c r="D15" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="119">
+      <c r="E15" s="105">
         <v>5</v>
       </c>
       <c r="F15" s="11"/>
@@ -4494,7 +4470,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="50"/>
-      <c r="N15" s="119">
+      <c r="N15" s="105">
         <v>10</v>
       </c>
       <c r="O15" s="11">
@@ -4504,7 +4480,7 @@
       <c r="Q15" s="49">
         <v>10</v>
       </c>
-      <c r="R15" s="177">
+      <c r="R15" s="163">
         <v>1</v>
       </c>
       <c r="S15" s="59"/>
@@ -4519,33 +4495,33 @@
       <c r="D16" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="157" t="s">
+      <c r="E16" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="158" t="s">
+      <c r="F16" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="159" t="s">
+      <c r="G16" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="160" t="s">
+      <c r="H16" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="161"/>
-      <c r="J16" s="162"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="163"/>
-      <c r="O16" s="164"/>
-      <c r="P16" s="161"/>
-      <c r="Q16" s="113" t="s">
+      <c r="I16" s="147"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="149"/>
+      <c r="O16" s="150"/>
+      <c r="P16" s="147"/>
+      <c r="Q16" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="R16" s="114" t="s">
+      <c r="R16" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="S16" s="165"/>
+      <c r="S16" s="151"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B17" s="70" t="s">
@@ -4557,33 +4533,33 @@
       <c r="D17" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="166" t="s">
+      <c r="E17" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="167" t="s">
+      <c r="F17" s="153" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="168" t="s">
+      <c r="G17" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="169" t="s">
+      <c r="H17" s="155" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="170"/>
-      <c r="J17" s="171"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="118"/>
-      <c r="N17" s="172"/>
-      <c r="O17" s="173"/>
-      <c r="P17" s="170"/>
-      <c r="Q17" s="174" t="s">
+      <c r="I17" s="156"/>
+      <c r="J17" s="157"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="158"/>
+      <c r="O17" s="159"/>
+      <c r="P17" s="156"/>
+      <c r="Q17" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="R17" s="175" t="s">
+      <c r="R17" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="S17" s="176"/>
+      <c r="S17" s="162"/>
     </row>
     <row r="18" spans="2:19" ht="25.5" x14ac:dyDescent="0.3">
       <c r="B18" s="71" t="s">
@@ -4595,33 +4571,33 @@
       <c r="D18" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="144">
+      <c r="E18" s="130">
         <v>1</v>
       </c>
-      <c r="F18" s="145">
+      <c r="F18" s="131">
         <v>1</v>
       </c>
-      <c r="G18" s="146">
+      <c r="G18" s="132">
         <v>0</v>
       </c>
-      <c r="H18" s="147">
+      <c r="H18" s="133">
         <v>1</v>
       </c>
-      <c r="I18" s="148"/>
-      <c r="J18" s="149"/>
-      <c r="K18" s="153"/>
-      <c r="L18" s="153"/>
-      <c r="M18" s="154"/>
-      <c r="N18" s="150"/>
-      <c r="O18" s="151"/>
-      <c r="P18" s="148"/>
-      <c r="Q18" s="155">
+      <c r="I18" s="134"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="139"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="140"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="137"/>
+      <c r="P18" s="134"/>
+      <c r="Q18" s="141">
         <v>1</v>
       </c>
-      <c r="R18" s="156">
+      <c r="R18" s="142">
         <v>1</v>
       </c>
-      <c r="S18" s="152"/>
+      <c r="S18" s="138"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B19" s="68" t="s">
@@ -4639,14 +4615,14 @@
       <c r="H19" s="12"/>
       <c r="I19" s="42"/>
       <c r="J19" s="48"/>
-      <c r="K19" s="140"/>
-      <c r="L19" s="140"/>
-      <c r="M19" s="141"/>
-      <c r="N19" s="142"/>
+      <c r="K19" s="126"/>
+      <c r="L19" s="126"/>
+      <c r="M19" s="127"/>
+      <c r="N19" s="128"/>
       <c r="O19" s="12">
         <v>1.3</v>
       </c>
-      <c r="P19" s="143"/>
+      <c r="P19" s="129"/>
       <c r="Q19" s="48"/>
       <c r="R19" s="15"/>
       <c r="S19" s="58"/>
@@ -4689,27 +4665,27 @@
       <c r="D21" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="131"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132" t="b">
+      <c r="E21" s="117"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118" t="b">
         <v>1</v>
       </c>
-      <c r="H21" s="132" t="b">
+      <c r="H21" s="118" t="b">
         <v>1</v>
       </c>
-      <c r="I21" s="133" t="b">
+      <c r="I21" s="119" t="b">
         <v>1</v>
       </c>
-      <c r="J21" s="134"/>
-      <c r="K21" s="135"/>
-      <c r="L21" s="135"/>
-      <c r="M21" s="136"/>
-      <c r="N21" s="131"/>
-      <c r="O21" s="137"/>
-      <c r="P21" s="133"/>
-      <c r="Q21" s="138"/>
-      <c r="R21" s="139"/>
-      <c r="S21" s="133"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="121"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="122"/>
+      <c r="N21" s="117"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="124"/>
+      <c r="R21" s="125"/>
+      <c r="S21" s="119"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B22" s="73" t="s">
@@ -4733,18 +4709,15 @@
       <c r="I22" s="55">
         <v>1</v>
       </c>
-      <c r="J22" s="121"/>
-      <c r="K22" s="122">
-        <f>0.8*1.4*3</f>
-        <v>3.3599999999999994</v>
-      </c>
-      <c r="L22" s="122"/>
-      <c r="M22" s="123"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="108"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="109"/>
       <c r="N22" s="54"/>
       <c r="O22" s="20"/>
       <c r="P22" s="55"/>
-      <c r="Q22" s="127"/>
-      <c r="R22" s="129"/>
+      <c r="Q22" s="113"/>
+      <c r="R22" s="115"/>
       <c r="S22" s="55">
         <f>0.8*1.4*3</f>
         <v>3.3599999999999994</v>
@@ -4771,25 +4744,17 @@
       </c>
       <c r="H23" s="46"/>
       <c r="I23" s="47"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="125">
-        <f>0.1*0.8*7*3</f>
-        <v>1.6800000000000002</v>
-      </c>
-      <c r="L23" s="125">
-        <v>3</v>
-      </c>
-      <c r="M23" s="126">
-        <f>0.1*0.8*7*3</f>
-        <v>1.6800000000000002</v>
-      </c>
+      <c r="J23" s="110"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="112"/>
       <c r="N23" s="56"/>
       <c r="O23" s="46">
         <v>3</v>
       </c>
       <c r="P23" s="57"/>
-      <c r="Q23" s="128"/>
-      <c r="R23" s="130">
+      <c r="Q23" s="114"/>
+      <c r="R23" s="116">
         <v>3</v>
       </c>
       <c r="S23" s="47">
@@ -4797,126 +4762,126 @@
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B24" s="265" t="s">
+      <c r="B24" s="249" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="266" t="s">
+      <c r="C24" s="250" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="267" t="s">
+      <c r="D24" s="251" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="272" t="b">
+      <c r="E24" s="256" t="b">
         <v>1</v>
       </c>
-      <c r="F24" s="273" t="b">
+      <c r="F24" s="257" t="b">
         <v>0</v>
       </c>
-      <c r="G24" s="274" t="b">
+      <c r="G24" s="258" t="b">
         <v>1</v>
       </c>
-      <c r="H24" s="275" t="b">
+      <c r="H24" s="259" t="b">
         <v>0</v>
       </c>
-      <c r="I24" s="276" t="b">
+      <c r="I24" s="260" t="b">
         <v>1</v>
       </c>
-      <c r="J24" s="277" t="b">
+      <c r="J24" s="261" t="b">
         <v>1</v>
       </c>
-      <c r="K24" s="278" t="b">
+      <c r="K24" s="262" t="b">
         <v>1</v>
       </c>
-      <c r="L24" s="278" t="b">
+      <c r="L24" s="262" t="b">
         <v>1</v>
       </c>
-      <c r="M24" s="279" t="b">
+      <c r="M24" s="263" t="b">
         <v>1</v>
       </c>
-      <c r="N24" s="272" t="b">
+      <c r="N24" s="256" t="b">
         <v>1</v>
       </c>
-      <c r="O24" s="275" t="b">
+      <c r="O24" s="259" t="b">
         <v>1</v>
       </c>
-      <c r="P24" s="276" t="b">
+      <c r="P24" s="260" t="b">
         <v>1</v>
       </c>
-      <c r="Q24" s="277" t="b">
+      <c r="Q24" s="261" t="b">
         <v>1</v>
       </c>
-      <c r="R24" s="280" t="b">
+      <c r="R24" s="264" t="b">
         <v>1</v>
       </c>
-      <c r="S24" s="281" t="b">
+      <c r="S24" s="265" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="268" t="s">
+      <c r="B25" s="252" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="269" t="s">
+      <c r="C25" s="253" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="270" t="s">
+      <c r="D25" s="254" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="282" t="b">
+      <c r="E25" s="266" t="b">
         <v>1</v>
       </c>
-      <c r="F25" s="283" t="b">
+      <c r="F25" s="267" t="b">
         <v>1</v>
       </c>
-      <c r="G25" s="284" t="b">
+      <c r="G25" s="268" t="b">
         <v>0</v>
       </c>
-      <c r="H25" s="285" t="b">
+      <c r="H25" s="269" t="b">
         <v>1</v>
       </c>
-      <c r="I25" s="286" t="b">
+      <c r="I25" s="270" t="b">
         <v>0</v>
       </c>
-      <c r="J25" s="287" t="b">
+      <c r="J25" s="271" t="b">
         <v>0</v>
       </c>
-      <c r="K25" s="288" t="b">
+      <c r="K25" s="272" t="b">
         <v>0</v>
       </c>
-      <c r="L25" s="288" t="b">
+      <c r="L25" s="272" t="b">
         <v>0</v>
       </c>
-      <c r="M25" s="289" t="b">
+      <c r="M25" s="273" t="b">
         <v>0</v>
       </c>
-      <c r="N25" s="282" t="b">
+      <c r="N25" s="266" t="b">
         <v>1</v>
       </c>
-      <c r="O25" s="283" t="b">
+      <c r="O25" s="267" t="b">
         <v>1</v>
       </c>
-      <c r="P25" s="286" t="b">
+      <c r="P25" s="270" t="b">
         <v>1</v>
       </c>
-      <c r="Q25" s="287" t="b">
+      <c r="Q25" s="271" t="b">
         <v>1</v>
       </c>
-      <c r="R25" s="290" t="b">
+      <c r="R25" s="274" t="b">
         <v>1</v>
       </c>
-      <c r="S25" s="291" t="b">
+      <c r="S25" s="275" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:19" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B27" s="263" t="s">
+      <c r="B27" s="277" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="263"/>
-      <c r="D27" s="263"/>
-      <c r="E27" s="263"/>
-      <c r="F27" s="263"/>
+      <c r="C27" s="277"/>
+      <c r="D27" s="277"/>
+      <c r="E27" s="277"/>
+      <c r="F27" s="277"/>
     </row>
     <row r="28" spans="2:19" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="2:19" x14ac:dyDescent="0.3">
@@ -4925,10 +4890,10 @@
       </c>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
-      <c r="E29" s="264" t="s">
+      <c r="E29" s="276" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="264"/>
+      <c r="F29" s="276"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4941,7 +4906,7 @@
     <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <conditionalFormatting sqref="E6:S25">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>NOT(ISBLANK(E6))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4986,7 +4951,7 @@
       <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="271" t="s">
+      <c r="D3" s="255" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4994,7 +4959,7 @@
       <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="271" t="b">
+      <c r="D4" s="255" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5002,7 +4967,7 @@
       <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="271" t="b">
+      <c r="D5" s="255" t="b">
         <v>1</v>
       </c>
     </row>

--- a/LifespanDesign/.templates/threshold_values.xlsx
+++ b/LifespanDesign/.templates/threshold_values.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\RiverArchitect\LifespanDesign\.templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\RA_program\LifespanDesign\.templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3954,7 +3954,7 @@
   <dimension ref="B1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4354,7 +4354,7 @@
         <v>2.1</v>
       </c>
       <c r="N11" s="176">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="O11" s="179"/>
       <c r="P11" s="180"/>

--- a/LifespanDesign/.templates/threshold_values.xlsx
+++ b/LifespanDesign/.templates/threshold_values.xlsx
@@ -305,9 +305,6 @@
     <t>TERRAFORMING</t>
   </si>
   <si>
-    <t>BIOENGINEERING (OTHER)</t>
-  </si>
-  <si>
     <t>Design map frequency threshold</t>
   </si>
   <si>
@@ -338,7 +335,10 @@
     <t>Bool</t>
   </si>
   <si>
-    <t>Other bioeng.</t>
+    <t>Other nature-based eng.</t>
+  </si>
+  <si>
+    <t>NATURE-BASED (OTHER)</t>
   </si>
 </sst>
 </file>
@@ -3954,7 +3954,7 @@
   <dimension ref="B1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3995,12 +3995,12 @@
       <c r="L2" s="284"/>
       <c r="M2" s="285"/>
       <c r="N2" s="286" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="O2" s="287"/>
       <c r="P2" s="288"/>
       <c r="Q2" s="289" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R2" s="290"/>
       <c r="S2" s="291"/>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="R3" s="279"/>
       <c r="S3" s="95" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="25.5" x14ac:dyDescent="0.3">
@@ -4053,10 +4053,10 @@
         <v>45</v>
       </c>
       <c r="H4" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="94" t="s">
         <v>75</v>
-      </c>
-      <c r="I4" s="94" t="s">
-        <v>76</v>
       </c>
       <c r="J4" s="243" t="s">
         <v>48</v>
@@ -4074,10 +4074,10 @@
         <v>70</v>
       </c>
       <c r="O4" s="93" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P4" s="94" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q4" s="236" t="s">
         <v>46</v>
@@ -4086,7 +4086,7 @@
         <v>47</v>
       </c>
       <c r="S4" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4451,7 +4451,7 @@
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B15" s="68" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>2</v>
@@ -4763,7 +4763,7 @@
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B24" s="249" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="250" t="s">
         <v>16</v>
@@ -4819,7 +4819,7 @@
     </row>
     <row r="25" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="252" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="253" t="s">
         <v>16</v>
@@ -4952,7 +4952,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="255" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">

--- a/LifespanDesign/.templates/threshold_values.xlsx
+++ b/LifespanDesign/.templates/threshold_values.xlsx
@@ -1,36 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\RA_program\LifespanDesign\.templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\PycharmProjects\pythonProject\LifespanDesign\.templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0808BCA0-F03C-44E6-A926-00971FFDD115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="14280"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="thresholds" sheetId="1" r:id="rId1"/>
     <sheet name=".templates" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sebastian Schwindt</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0" shapeId="0">
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -103,12 +113,6 @@
     <t>Critical dimensionless bed shear stress</t>
   </si>
   <si>
-    <t>Depth to groundwater (min)</t>
-  </si>
-  <si>
-    <t>Depth to groundwater (max)</t>
-  </si>
-  <si>
     <t>Froude number</t>
   </si>
   <si>
@@ -339,12 +343,18 @@
   </si>
   <si>
     <t>NATURE-BASED (OTHER)</t>
+  </si>
+  <si>
+    <t>Depth to water table (min)</t>
+  </si>
+  <si>
+    <t>Depth to water table (max)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -2794,7 +2804,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="292">
+  <cellXfs count="294">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3625,6 +3635,8 @@
     <xf numFmtId="0" fontId="14" fillId="10" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27" customBuiltin="1"/>
@@ -3669,20 +3681,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:B5" totalsRowShown="0">
-  <autoFilter ref="B3:B5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:B5" totalsRowShown="0">
+  <autoFilter ref="B3:B5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="units"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="units"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D3:D5" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="D3:D5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D3:D5" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="D3:D5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Bool" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Bool" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3950,57 +3962,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="5.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="9.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7.125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="7.125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.5" style="2" customWidth="1"/>
-    <col min="17" max="18" width="9.125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="13.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="9.21875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7.109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.88671875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" style="2" customWidth="1"/>
+    <col min="17" max="18" width="9.109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="13.88671875" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E2" s="280" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F2" s="281"/>
       <c r="G2" s="281"/>
       <c r="H2" s="281"/>
       <c r="I2" s="282"/>
       <c r="J2" s="283" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K2" s="284"/>
       <c r="L2" s="284"/>
       <c r="M2" s="285"/>
       <c r="N2" s="286" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O2" s="287"/>
       <c r="P2" s="288"/>
       <c r="Q2" s="289" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R2" s="290"/>
       <c r="S2" s="291"/>
@@ -4008,10 +4020,10 @@
     <row r="3" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="77"/>
       <c r="C3" s="78" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="79" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3" s="80"/>
       <c r="F3" s="81"/>
@@ -4026,126 +4038,126 @@
       <c r="O3" s="82"/>
       <c r="P3" s="84"/>
       <c r="Q3" s="278" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R3" s="279"/>
       <c r="S3" s="95" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B4" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="91" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="94" t="s">
         <v>73</v>
       </c>
+      <c r="J4" s="243" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="244" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="244" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="245" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="P4" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q4" s="236" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" s="237" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" s="94" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="4" spans="2:19" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="88" t="s">
+    <row r="5" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="246" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="247" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="247" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="248" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="92" t="s">
+      <c r="O5" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="238" t="s">
+        <v>54</v>
+      </c>
+      <c r="R5" s="239" t="s">
+        <v>55</v>
+      </c>
+      <c r="S5" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="93" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" s="94" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="243" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="244" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="244" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="245" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" s="93" t="s">
-        <v>76</v>
-      </c>
-      <c r="P4" s="94" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q4" s="236" t="s">
-        <v>46</v>
-      </c>
-      <c r="R4" s="237" t="s">
-        <v>47</v>
-      </c>
-      <c r="S4" s="94" t="s">
-        <v>77</v>
-      </c>
     </row>
-    <row r="5" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="86" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="87" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="96" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="97" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="97" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="97" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="98" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" s="246" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" s="247" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" s="247" t="s">
-        <v>60</v>
-      </c>
-      <c r="M5" s="248" t="s">
-        <v>61</v>
-      </c>
-      <c r="N5" s="96" t="s">
-        <v>69</v>
-      </c>
-      <c r="O5" s="97" t="s">
-        <v>62</v>
-      </c>
-      <c r="P5" s="98" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q5" s="238" t="s">
-        <v>56</v>
-      </c>
-      <c r="R5" s="239" t="s">
-        <v>57</v>
-      </c>
-      <c r="S5" s="98" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="61" t="s">
         <v>4</v>
       </c>
@@ -4153,7 +4165,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="231">
         <v>4.7E-2</v>
@@ -4191,15 +4203,15 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+    <row r="7" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B7" s="292" t="s">
+        <v>82</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="219"/>
       <c r="F7" s="177"/>
@@ -4229,15 +4241,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="65" t="s">
-        <v>6</v>
+    <row r="8" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B8" s="293" t="s">
+        <v>83</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="223"/>
       <c r="F8" s="187"/>
@@ -4270,15 +4282,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9" s="66" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" s="195"/>
       <c r="F9" s="196">
@@ -4298,15 +4310,15 @@
       <c r="R9" s="204"/>
       <c r="S9" s="205"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="67" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="206"/>
       <c r="F10" s="207">
@@ -4326,7 +4338,7 @@
       <c r="R10" s="215"/>
       <c r="S10" s="216"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="64" t="s">
         <v>0</v>
       </c>
@@ -4334,7 +4346,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="176"/>
       <c r="F11" s="177"/>
@@ -4362,7 +4374,7 @@
       <c r="R11" s="184"/>
       <c r="S11" s="185"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12" s="65" t="s">
         <v>3</v>
       </c>
@@ -4370,7 +4382,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12" s="186">
         <v>0.1</v>
@@ -4392,15 +4404,15 @@
       <c r="R12" s="106"/>
       <c r="S12" s="194"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13" s="68" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="13"/>
@@ -4420,15 +4432,15 @@
       <c r="R13" s="15"/>
       <c r="S13" s="58"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B14" s="69" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="164"/>
       <c r="F14" s="165"/>
@@ -4449,15 +4461,15 @@
         <v>6.6666666666666671E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B15" s="68" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E15" s="105">
         <v>5</v>
@@ -4485,27 +4497,27 @@
       </c>
       <c r="S15" s="59"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B16" s="64" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E16" s="143" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F16" s="144" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G16" s="145" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H16" s="146" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I16" s="147"/>
       <c r="J16" s="148"/>
@@ -4516,34 +4528,34 @@
       <c r="O16" s="150"/>
       <c r="P16" s="147"/>
       <c r="Q16" s="99" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R16" s="100" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S16" s="151"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B17" s="70" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E17" s="152" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F17" s="153" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G17" s="154" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H17" s="155" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I17" s="156"/>
       <c r="J17" s="157"/>
@@ -4554,22 +4566,22 @@
       <c r="O17" s="159"/>
       <c r="P17" s="156"/>
       <c r="Q17" s="160" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R17" s="161" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="S17" s="162"/>
     </row>
-    <row r="18" spans="2:19" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B18" s="71" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E18" s="130">
         <v>1</v>
@@ -4599,15 +4611,15 @@
       </c>
       <c r="S18" s="138"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B19" s="68" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E19" s="41"/>
       <c r="F19" s="13"/>
@@ -4627,15 +4639,15 @@
       <c r="R19" s="15"/>
       <c r="S19" s="58"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B20" s="72" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E20" s="44"/>
       <c r="F20" s="27"/>
@@ -4655,15 +4667,15 @@
       <c r="R20" s="24"/>
       <c r="S20" s="60"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B21" s="66" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="39" t="s">
         <v>16</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>18</v>
       </c>
       <c r="E21" s="117"/>
       <c r="F21" s="118"/>
@@ -4687,15 +4699,15 @@
       <c r="R21" s="125"/>
       <c r="S21" s="119"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B22" s="73" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="54">
         <f>0.1*3</f>
@@ -4723,15 +4735,15 @@
         <v>3.3599999999999994</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="74" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C23" s="75" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23" s="56">
         <f>0.1*3</f>
@@ -4761,15 +4773,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B24" s="249" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C24" s="250" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="251" t="s">
         <v>16</v>
-      </c>
-      <c r="D24" s="251" t="s">
-        <v>18</v>
       </c>
       <c r="E24" s="256" t="b">
         <v>1</v>
@@ -4817,15 +4829,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="252" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C25" s="253" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="254" t="s">
         <v>16</v>
-      </c>
-      <c r="D25" s="254" t="s">
-        <v>18</v>
       </c>
       <c r="E25" s="266" t="b">
         <v>1</v>
@@ -4873,25 +4885,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="277" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C27" s="277"/>
       <c r="D27" s="277"/>
       <c r="E27" s="277"/>
       <c r="F27" s="277"/>
     </row>
-    <row r="28" spans="2:19" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
       <c r="E29" s="276" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F29" s="276"/>
     </row>
@@ -4916,13 +4928,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>'.templates'!$B$4:$B$5</xm:f>
           </x14:formula1>
           <xm:sqref>E29:F29</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>'.templates'!$D$4:$D$5</xm:f>
           </x14:formula1>
@@ -4935,37 +4947,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="255" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="255" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" s="255" t="b">
         <v>1</v>

--- a/LifespanDesign/.templates/threshold_values.xlsx
+++ b/LifespanDesign/.templates/threshold_values.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\PycharmProjects\pythonProject\LifespanDesign\.templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b8ba4e84fea5adb/Desktop/program-master (3)/program-master/LifespanDesign/.templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0808BCA0-F03C-44E6-A926-00971FFDD115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="231" documentId="13_ncr:1_{0808BCA0-F03C-44E6-A926-00971FFDD115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DFD0391-D354-41D2-A264-71590E2A9D18}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="96">
   <si>
     <t>Flow depth</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>GRAVEL AUGMENTATION</t>
-  </si>
-  <si>
-    <t>VEGETATION PLANTINGS</t>
   </si>
   <si>
     <t>TYPE</t>
@@ -349,6 +346,45 @@
   </si>
   <si>
     <t>Depth to water table (max)</t>
+  </si>
+  <si>
+    <t>VEGETATION SEEDLINGS/SAPLINGS</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>ESTABLISHED VEGETATION</t>
+  </si>
+  <si>
+    <t>Generic_est</t>
+  </si>
+  <si>
+    <t>Box Elder Est</t>
+  </si>
+  <si>
+    <t>Box_est</t>
+  </si>
+  <si>
+    <t>Cottonwood_est</t>
+  </si>
+  <si>
+    <t>cot_est</t>
+  </si>
+  <si>
+    <t>White Alder Est</t>
+  </si>
+  <si>
+    <t>Whi_est</t>
+  </si>
+  <si>
+    <t>Wil_est</t>
+  </si>
+  <si>
+    <t>Willow_est</t>
+  </si>
+  <si>
+    <t>bed shear stress</t>
   </si>
 </sst>
 </file>
@@ -481,7 +517,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -545,8 +581,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="161">
+  <borders count="185">
     <border>
       <left/>
       <right/>
@@ -597,51 +639,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="1"/>
       </left>
       <right style="thin">
@@ -1111,19 +1108,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="3" tint="0.39985351115451523"/>
       </left>
       <right style="thin">
@@ -1365,21 +1349,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1395,21 +1364,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1425,39 +1379,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
       </right>
       <top style="thin">
         <color theme="1"/>
@@ -2118,36 +2044,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="3" tint="0.39985351115451523"/>
       </left>
       <right style="thin">
@@ -2250,8 +2146,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color theme="0"/>
@@ -2265,101 +2161,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.39988402966399123"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.39994506668294322"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.39994506668294322"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color theme="0"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="3" tint="0.39988402966399123"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="3" tint="0.39994506668294322"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="3" tint="0.39994506668294322"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
       </right>
       <top style="thin">
         <color theme="0"/>
@@ -2454,8 +2305,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color theme="0"/>
       </left>
       <right style="thin">
         <color theme="0"/>
@@ -2470,8 +2321,8 @@
       <left style="thin">
         <color theme="0"/>
       </left>
-      <right style="thin">
-        <color theme="0"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
@@ -2482,19 +2333,6 @@
     <border>
       <left style="thin">
         <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
       </left>
       <right style="thin">
         <color theme="0"/>
@@ -2507,8 +2345,8 @@
       <left style="thin">
         <color theme="0"/>
       </left>
-      <right style="thin">
-        <color theme="0"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -2522,16 +2360,238 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.39979247413556324"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.39979247413556324"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.39976195562608724"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.39994506668294322"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.39991454817346722"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.39985351115451523"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.39982299264503923"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.39982299264503923"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.39994506668294322"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.39994506668294322"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.39979247413556324"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.39994506668294322"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.39991454817346722"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="3" tint="0.39994506668294322"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.39994506668294322"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -2539,11 +2599,363 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
       </right>
       <top/>
       <bottom style="medium">
@@ -2552,244 +2964,138 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="3" tint="0.39979247413556324"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="3" tint="0.39979247413556324"/>
-      </left>
-      <right style="thin">
-        <color theme="3" tint="0.39976195562608724"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="3" tint="0.39994506668294322"/>
-      </left>
-      <right style="thin">
-        <color theme="3" tint="0.39991454817346722"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="3" tint="0.39985351115451523"/>
-      </left>
-      <right style="thin">
-        <color theme="3" tint="0.39982299264503923"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="3" tint="0.39982299264503923"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="3" tint="0.39994506668294322"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="3" tint="0.39994506668294322"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="3" tint="0.39979247413556324"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="3" tint="0.39994506668294322"/>
-      </left>
-      <right style="thin">
-        <color theme="3" tint="0.39991454817346722"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="3" tint="0.39994506668294322"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="3" tint="0.39994506668294322"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
@@ -2804,839 +3110,946 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="294">
+  <cellXfs count="331">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="78" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="86" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="105" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="97" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="59" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="113" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="114" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="115" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="107" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="106" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="102" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="114" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="109" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="126" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="111" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="113" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="114" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="127" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="128" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="129" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="131" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="130" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="60" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="117" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="61" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="81" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="113" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="132" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="134" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="135" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="131" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="137" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="138" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="139" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="140" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="116" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="141" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="142" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="145" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="146" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="147" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="146" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="147" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="148" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="149" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="147" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="148" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="146" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="150" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="155" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="156" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="155" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="156" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="157" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="158" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="157" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="155" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="159" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="58" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="116" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="fill"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="91" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="fill"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="fill"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="115" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="fill"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="111" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="fill"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="110" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="fill"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="111" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="fill"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="112" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="fill"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="125" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="119" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="60" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="156" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="158" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="155" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="159" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="160" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="122" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="89" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="124" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="144" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="145" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="150" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="151" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="152" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="153" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="154" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="147" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="148" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="149" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="155" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="156" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="157" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="158" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="127" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="128" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="129" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="159" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="61" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="69" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="65" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="69" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="71" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="155" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="159" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="162" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="163" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="165" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="164" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="166" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="158" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="167" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="154" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="143" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="168" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="170" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="169" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="144" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="171" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="173" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="174" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="172" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="151" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="152" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="153" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="175" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="176" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="176" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="177" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="172" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="178" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="179" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="180" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="181" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="182" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="183" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="157" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="163" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="184" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="175" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27" customBuiltin="1"/>
@@ -3646,15 +4059,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3666,6 +4070,15 @@
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3691,10 +4104,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D3:D5" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D3:D5" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="D3:D5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Bool" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Bool" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3963,10 +4376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:S29"/>
+  <dimension ref="B1:Y30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3978,948 +4391,1204 @@
     <col min="5" max="5" width="10.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.77734375" style="2" customWidth="1"/>
     <col min="7" max="7" width="7.88671875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="9.21875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7.109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.88671875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.44140625" style="2" customWidth="1"/>
-    <col min="17" max="18" width="9.109375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="13.88671875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="8" max="10" width="9.21875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="10.109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="11" style="2" customWidth="1"/>
+    <col min="20" max="20" width="9.88671875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="7.109375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="10.44140625" style="2" customWidth="1"/>
+    <col min="23" max="24" width="9.109375" style="2" customWidth="1"/>
+    <col min="25" max="25" width="13.88671875" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="280" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="281"/>
-      <c r="G2" s="281"/>
-      <c r="H2" s="281"/>
-      <c r="I2" s="282"/>
-      <c r="J2" s="283" t="s">
+    <row r="1" spans="2:25" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="299" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="300"/>
+      <c r="G2" s="300"/>
+      <c r="H2" s="300"/>
+      <c r="I2" s="301"/>
+      <c r="J2" s="308" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="309"/>
+      <c r="L2" s="309"/>
+      <c r="M2" s="309"/>
+      <c r="N2" s="310"/>
+      <c r="O2" s="308" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" s="309"/>
+      <c r="Q2" s="309"/>
+      <c r="R2" s="309"/>
+      <c r="S2" s="310"/>
+      <c r="T2" s="302" t="s">
+        <v>80</v>
+      </c>
+      <c r="U2" s="303"/>
+      <c r="V2" s="304"/>
+      <c r="W2" s="305" t="s">
+        <v>75</v>
+      </c>
+      <c r="X2" s="306"/>
+      <c r="Y2" s="307"/>
+    </row>
+    <row r="3" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="71"/>
+      <c r="C3" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="284"/>
-      <c r="L2" s="284"/>
-      <c r="M2" s="285"/>
-      <c r="N2" s="286" t="s">
+      <c r="D3" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="201"/>
+      <c r="L3" s="201"/>
+      <c r="M3" s="201"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="287"/>
+      <c r="P3" s="289"/>
+      <c r="Q3" s="289"/>
+      <c r="R3" s="289"/>
+      <c r="S3" s="202"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="297" t="s">
+        <v>22</v>
+      </c>
+      <c r="X3" s="298"/>
+      <c r="Y3" s="89" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B4" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="232" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="203" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="203" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="203" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="204" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="248" t="s">
+        <v>86</v>
+      </c>
+      <c r="P4" s="293" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q4" s="232" t="s">
+        <v>89</v>
+      </c>
+      <c r="R4" s="292" t="s">
+        <v>91</v>
+      </c>
+      <c r="S4" s="204" t="s">
+        <v>94</v>
+      </c>
+      <c r="T4" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="U4" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="V4" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="W4" s="197" t="s">
+        <v>43</v>
+      </c>
+      <c r="X4" s="198" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y4" s="88" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="91" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="199" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="290" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="278" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="278" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="205" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="288" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" s="291" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q5" s="291" t="s">
+        <v>90</v>
+      </c>
+      <c r="R5" s="291" t="s">
+        <v>92</v>
+      </c>
+      <c r="S5" s="205" t="s">
+        <v>93</v>
+      </c>
+      <c r="T5" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="U5" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="V5" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="W5" s="199" t="s">
+        <v>53</v>
+      </c>
+      <c r="X5" s="200" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y5" s="92" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="329" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="330" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="311"/>
+      <c r="F6" s="322"/>
+      <c r="G6" s="322"/>
+      <c r="H6" s="321"/>
+      <c r="I6" s="313"/>
+      <c r="J6" s="312"/>
+      <c r="K6" s="325"/>
+      <c r="L6" s="314"/>
+      <c r="M6" s="326"/>
+      <c r="N6" s="315"/>
+      <c r="O6" s="314"/>
+      <c r="P6" s="324"/>
+      <c r="Q6" s="327"/>
+      <c r="R6" s="314"/>
+      <c r="S6" s="328"/>
+      <c r="T6" s="311"/>
+      <c r="U6" s="319"/>
+      <c r="V6" s="320"/>
+      <c r="W6" s="316"/>
+      <c r="X6" s="317"/>
+      <c r="Y6" s="320"/>
+    </row>
+    <row r="7" spans="2:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B7" s="318" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="193">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F7" s="194"/>
+      <c r="G7" s="190">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H7" s="190"/>
+      <c r="I7" s="195">
+        <v>4.7E-2</v>
+      </c>
+      <c r="J7" s="233"/>
+      <c r="K7" s="276">
+        <v>4.7E-2</v>
+      </c>
+      <c r="L7" s="280"/>
+      <c r="M7" s="277">
+        <v>4.7E-2</v>
+      </c>
+      <c r="N7" s="195">
+        <v>0.1</v>
+      </c>
+      <c r="O7" s="233"/>
+      <c r="P7" s="276">
+        <v>4.7E-2</v>
+      </c>
+      <c r="Q7" s="280"/>
+      <c r="R7" s="277">
+        <v>4.7E-2</v>
+      </c>
+      <c r="S7" s="195">
+        <v>0.1</v>
+      </c>
+      <c r="T7" s="193"/>
+      <c r="U7" s="191">
+        <v>4.7E-2</v>
+      </c>
+      <c r="V7" s="195"/>
+      <c r="W7" s="196">
+        <v>4.7E-2</v>
+      </c>
+      <c r="X7" s="192">
+        <v>4.7E-2</v>
+      </c>
+      <c r="Y7" s="195">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B8" s="229" t="s">
         <v>81</v>
       </c>
-      <c r="O2" s="287"/>
-      <c r="P2" s="288"/>
-      <c r="Q2" s="289" t="s">
-        <v>76</v>
-      </c>
-      <c r="R2" s="290"/>
-      <c r="S2" s="291"/>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="182"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="148">
+        <v>7</v>
+      </c>
+      <c r="H8" s="150"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="234"/>
+      <c r="K8" s="279">
+        <v>1</v>
+      </c>
+      <c r="L8" s="249">
+        <v>1</v>
+      </c>
+      <c r="M8" s="249">
+        <v>1</v>
+      </c>
+      <c r="N8" s="263">
+        <v>1</v>
+      </c>
+      <c r="O8" s="234"/>
+      <c r="P8" s="279">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="249">
+        <v>1</v>
+      </c>
+      <c r="R8" s="249">
+        <v>1</v>
+      </c>
+      <c r="S8" s="263">
+        <v>1</v>
+      </c>
+      <c r="T8" s="183"/>
+      <c r="U8" s="150"/>
+      <c r="V8" s="151"/>
+      <c r="W8" s="184"/>
+      <c r="X8" s="185"/>
+      <c r="Y8" s="151">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="79" t="s">
+    <row r="9" spans="2:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B9" s="230" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="186"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="156">
+        <v>12</v>
+      </c>
+      <c r="H9" s="158"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="235"/>
+      <c r="K9" s="250">
+        <v>7</v>
+      </c>
+      <c r="L9" s="250">
+        <v>7</v>
+      </c>
+      <c r="M9" s="250">
+        <v>7</v>
+      </c>
+      <c r="N9" s="264">
+        <v>7</v>
+      </c>
+      <c r="O9" s="235"/>
+      <c r="P9" s="250">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="250">
+        <v>7</v>
+      </c>
+      <c r="R9" s="250">
+        <v>7</v>
+      </c>
+      <c r="S9" s="264">
+        <v>7</v>
+      </c>
+      <c r="T9" s="187"/>
+      <c r="U9" s="158"/>
+      <c r="V9" s="159">
+        <f>MAX(D9:G9)</f>
+        <v>12</v>
+      </c>
+      <c r="W9" s="188"/>
+      <c r="X9" s="189"/>
+      <c r="Y9" s="159">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B10" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="162"/>
+      <c r="F10" s="163">
+        <v>17</v>
+      </c>
+      <c r="G10" s="163"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="236"/>
+      <c r="K10" s="251"/>
+      <c r="L10" s="251"/>
+      <c r="M10" s="251"/>
+      <c r="N10" s="168"/>
+      <c r="O10" s="236"/>
+      <c r="P10" s="251"/>
+      <c r="Q10" s="251"/>
+      <c r="R10" s="251"/>
+      <c r="S10" s="168"/>
+      <c r="T10" s="167"/>
+      <c r="U10" s="180"/>
+      <c r="V10" s="168"/>
+      <c r="W10" s="166"/>
+      <c r="X10" s="169"/>
+      <c r="Y10" s="170"/>
+    </row>
+    <row r="11" spans="2:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B11" s="323" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="171"/>
+      <c r="F11" s="172">
         <v>25</v>
       </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="240"/>
-      <c r="K3" s="241"/>
-      <c r="L3" s="241"/>
-      <c r="M3" s="242"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="278" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="279"/>
-      <c r="S3" s="95" t="s">
-        <v>71</v>
-      </c>
+      <c r="G11" s="172"/>
+      <c r="H11" s="173"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="237"/>
+      <c r="K11" s="252"/>
+      <c r="L11" s="252"/>
+      <c r="M11" s="252"/>
+      <c r="N11" s="177"/>
+      <c r="O11" s="237"/>
+      <c r="P11" s="252"/>
+      <c r="Q11" s="252"/>
+      <c r="R11" s="252"/>
+      <c r="S11" s="177"/>
+      <c r="T11" s="176"/>
+      <c r="U11" s="181"/>
+      <c r="V11" s="177"/>
+      <c r="W11" s="175"/>
+      <c r="X11" s="178"/>
+      <c r="Y11" s="179"/>
     </row>
-    <row r="4" spans="2:19" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B4" s="88" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="90" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="91" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="93" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" s="243" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="244" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="244" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="245" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="O4" s="93" t="s">
-        <v>74</v>
-      </c>
-      <c r="P4" s="94" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q4" s="236" t="s">
-        <v>44</v>
-      </c>
-      <c r="R4" s="237" t="s">
-        <v>45</v>
-      </c>
-      <c r="S4" s="94" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="87" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="96" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="97" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="97" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="98" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="246" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" s="247" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="247" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" s="248" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="O5" s="97" t="s">
-        <v>60</v>
-      </c>
-      <c r="P5" s="98" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q5" s="238" t="s">
-        <v>54</v>
-      </c>
-      <c r="R5" s="239" t="s">
-        <v>55</v>
-      </c>
-      <c r="S5" s="98" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="62" t="s">
+    <row r="12" spans="2:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B12" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="231">
-        <v>4.7E-2</v>
-      </c>
-      <c r="F6" s="232"/>
-      <c r="G6" s="227">
-        <v>4.7E-2</v>
-      </c>
-      <c r="H6" s="227"/>
-      <c r="I6" s="233">
-        <v>4.7E-2</v>
-      </c>
-      <c r="J6" s="234">
-        <v>4.7E-2</v>
-      </c>
-      <c r="K6" s="228"/>
-      <c r="L6" s="228">
-        <v>4.7E-2</v>
-      </c>
-      <c r="M6" s="233">
-        <v>0.1</v>
-      </c>
-      <c r="N6" s="231"/>
-      <c r="O6" s="229">
-        <v>4.7E-2</v>
-      </c>
-      <c r="P6" s="233"/>
-      <c r="Q6" s="235">
-        <v>4.7E-2</v>
-      </c>
-      <c r="R6" s="230">
-        <v>4.7E-2</v>
-      </c>
-      <c r="S6" s="233">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B7" s="292" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="31" t="s">
+      <c r="D12" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="219"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="177">
-        <v>7</v>
-      </c>
-      <c r="H7" s="179"/>
-      <c r="I7" s="180"/>
-      <c r="J7" s="181">
+      <c r="E12" s="147"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="234"/>
+      <c r="K12" s="249">
         <v>1</v>
       </c>
-      <c r="K7" s="182">
-        <v>1</v>
-      </c>
-      <c r="L7" s="182">
-        <v>1</v>
-      </c>
-      <c r="M7" s="183">
-        <v>1</v>
-      </c>
-      <c r="N7" s="220"/>
-      <c r="O7" s="179"/>
-      <c r="P7" s="180"/>
-      <c r="Q7" s="221"/>
-      <c r="R7" s="222"/>
-      <c r="S7" s="180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B8" s="293" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="223"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="187">
-        <v>12</v>
-      </c>
-      <c r="H8" s="189"/>
-      <c r="I8" s="190"/>
-      <c r="J8" s="191">
-        <v>7</v>
-      </c>
-      <c r="K8" s="192">
-        <v>7</v>
-      </c>
-      <c r="L8" s="192">
-        <v>7</v>
-      </c>
-      <c r="M8" s="193">
-        <v>7</v>
-      </c>
-      <c r="N8" s="224"/>
-      <c r="O8" s="189"/>
-      <c r="P8" s="190">
-        <f>MAX(D8:G8)</f>
-        <v>12</v>
-      </c>
-      <c r="Q8" s="225"/>
-      <c r="R8" s="226"/>
-      <c r="S8" s="190">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B9" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="195"/>
-      <c r="F9" s="196">
-        <v>17</v>
-      </c>
-      <c r="G9" s="196"/>
-      <c r="H9" s="197"/>
-      <c r="I9" s="198"/>
-      <c r="J9" s="199"/>
-      <c r="K9" s="200"/>
-      <c r="L9" s="200"/>
-      <c r="M9" s="201"/>
-      <c r="N9" s="202"/>
-      <c r="O9" s="217"/>
-      <c r="P9" s="203"/>
-      <c r="Q9" s="199"/>
-      <c r="R9" s="204"/>
-      <c r="S9" s="205"/>
-    </row>
-    <row r="10" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="206"/>
-      <c r="F10" s="207">
-        <v>25</v>
-      </c>
-      <c r="G10" s="207"/>
-      <c r="H10" s="208"/>
-      <c r="I10" s="209"/>
-      <c r="J10" s="210"/>
-      <c r="K10" s="211"/>
-      <c r="L10" s="211"/>
-      <c r="M10" s="212"/>
-      <c r="N10" s="213"/>
-      <c r="O10" s="218"/>
-      <c r="P10" s="214"/>
-      <c r="Q10" s="210"/>
-      <c r="R10" s="215"/>
-      <c r="S10" s="216"/>
-    </row>
-    <row r="11" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="176"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="178"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="180"/>
-      <c r="J11" s="181">
-        <v>1</v>
-      </c>
-      <c r="K11" s="182">
+      <c r="L12" s="249">
         <f>1.5*0.2*7</f>
         <v>2.1000000000000005</v>
       </c>
-      <c r="L11" s="182"/>
-      <c r="M11" s="183">
+      <c r="M12" s="249"/>
+      <c r="N12" s="263">
         <f>0.2*7+0.7</f>
         <v>2.1</v>
       </c>
-      <c r="N11" s="176">
+      <c r="O12" s="234"/>
+      <c r="P12" s="249">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="249">
+        <f>1.5*0.2*7</f>
+        <v>2.1000000000000005</v>
+      </c>
+      <c r="R12" s="249"/>
+      <c r="S12" s="263">
+        <f>0.2*7+0.7</f>
+        <v>2.1</v>
+      </c>
+      <c r="T12" s="147">
         <v>3.34</v>
       </c>
-      <c r="O11" s="179"/>
-      <c r="P11" s="180"/>
-      <c r="Q11" s="181"/>
-      <c r="R11" s="184"/>
-      <c r="S11" s="185"/>
+      <c r="U12" s="150"/>
+      <c r="V12" s="151"/>
+      <c r="W12" s="152"/>
+      <c r="X12" s="153"/>
+      <c r="Y12" s="154"/>
     </row>
-    <row r="12" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="65" t="s">
+    <row r="13" spans="2:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B13" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D13" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="186">
+      <c r="E13" s="155">
         <v>0.1</v>
       </c>
-      <c r="F12" s="187"/>
-      <c r="G12" s="188"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="190"/>
-      <c r="J12" s="191"/>
-      <c r="K12" s="192">
+      <c r="F13" s="156"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="235"/>
+      <c r="K13" s="250"/>
+      <c r="L13" s="250">
         <v>3</v>
       </c>
-      <c r="L12" s="192"/>
-      <c r="M12" s="193"/>
-      <c r="N12" s="186"/>
-      <c r="O12" s="187"/>
-      <c r="P12" s="190"/>
-      <c r="Q12" s="191"/>
-      <c r="R12" s="106"/>
-      <c r="S12" s="194"/>
+      <c r="M13" s="250"/>
+      <c r="N13" s="264"/>
+      <c r="O13" s="235"/>
+      <c r="P13" s="250"/>
+      <c r="Q13" s="250">
+        <v>3</v>
+      </c>
+      <c r="R13" s="250"/>
+      <c r="S13" s="264"/>
+      <c r="T13" s="155"/>
+      <c r="U13" s="156"/>
+      <c r="V13" s="159"/>
+      <c r="W13" s="160"/>
+      <c r="X13" s="96"/>
+      <c r="Y13" s="161"/>
     </row>
-    <row r="13" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="68" t="s">
+    <row r="14" spans="2:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B14" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D14" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="127"/>
-      <c r="N13" s="41">
+      <c r="E14" s="39"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="238"/>
+      <c r="K14" s="253"/>
+      <c r="L14" s="253"/>
+      <c r="M14" s="253"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="238"/>
+      <c r="P14" s="253"/>
+      <c r="Q14" s="253"/>
+      <c r="R14" s="253"/>
+      <c r="S14" s="108"/>
+      <c r="T14" s="39">
         <v>1</v>
       </c>
-      <c r="O13" s="12"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="58"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="54"/>
     </row>
-    <row r="14" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B14" s="69" t="s">
+    <row r="15" spans="2:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B15" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="164"/>
-      <c r="F14" s="165"/>
-      <c r="G14" s="166"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="168"/>
-      <c r="J14" s="169"/>
-      <c r="K14" s="170"/>
-      <c r="L14" s="170"/>
-      <c r="M14" s="171"/>
-      <c r="N14" s="172"/>
-      <c r="O14" s="173"/>
-      <c r="P14" s="168"/>
-      <c r="Q14" s="174"/>
-      <c r="R14" s="175"/>
-      <c r="S14" s="168">
+      <c r="E15" s="138"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="239"/>
+      <c r="K15" s="254"/>
+      <c r="L15" s="254"/>
+      <c r="M15" s="254"/>
+      <c r="N15" s="265"/>
+      <c r="O15" s="239"/>
+      <c r="P15" s="254"/>
+      <c r="Q15" s="254"/>
+      <c r="R15" s="254"/>
+      <c r="S15" s="265"/>
+      <c r="T15" s="143"/>
+      <c r="U15" s="144"/>
+      <c r="V15" s="142"/>
+      <c r="W15" s="145"/>
+      <c r="X15" s="146"/>
+      <c r="Y15" s="142">
         <f>0.08/12</f>
         <v>6.6666666666666671E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B15" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="16" t="s">
+    <row r="16" spans="2:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B16" s="294" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D16" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="105">
+      <c r="E16" s="95">
         <v>5</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="105">
+      <c r="F16" s="10"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="240"/>
+      <c r="K16" s="255"/>
+      <c r="L16" s="255"/>
+      <c r="M16" s="255"/>
+      <c r="N16" s="266"/>
+      <c r="O16" s="240"/>
+      <c r="P16" s="255"/>
+      <c r="Q16" s="255"/>
+      <c r="R16" s="255"/>
+      <c r="S16" s="266"/>
+      <c r="T16" s="95">
         <v>10</v>
       </c>
-      <c r="O15" s="11">
+      <c r="U16" s="10">
         <v>20</v>
       </c>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="49">
+      <c r="V16" s="41"/>
+      <c r="W16" s="47">
         <v>10</v>
       </c>
-      <c r="R15" s="163">
+      <c r="X16" s="137">
         <v>1</v>
       </c>
-      <c r="S15" s="59"/>
+      <c r="Y16" s="55"/>
     </row>
-    <row r="16" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B16" s="64" t="s">
+    <row r="17" spans="2:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B17" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="119" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="120" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="121" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="123"/>
+      <c r="J17" s="241"/>
+      <c r="K17" s="256"/>
+      <c r="L17" s="273"/>
+      <c r="M17" s="273"/>
+      <c r="N17" s="267"/>
+      <c r="O17" s="241"/>
+      <c r="P17" s="256"/>
+      <c r="Q17" s="273"/>
+      <c r="R17" s="273"/>
+      <c r="S17" s="267"/>
+      <c r="T17" s="124"/>
+      <c r="U17" s="125"/>
+      <c r="V17" s="123"/>
+      <c r="W17" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="X17" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y17" s="126"/>
+    </row>
+    <row r="18" spans="2:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B18" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C18" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D18" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="143" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="144" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="145" t="s">
+      <c r="E18" s="127" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="146" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="147"/>
-      <c r="J16" s="148"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="149"/>
-      <c r="O16" s="150"/>
-      <c r="P16" s="147"/>
-      <c r="Q16" s="99" t="s">
-        <v>31</v>
-      </c>
-      <c r="R16" s="100" t="s">
-        <v>31</v>
-      </c>
-      <c r="S16" s="151"/>
+      <c r="H18" s="130" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="131"/>
+      <c r="J18" s="242"/>
+      <c r="K18" s="257"/>
+      <c r="L18" s="274"/>
+      <c r="M18" s="274"/>
+      <c r="N18" s="268"/>
+      <c r="O18" s="242"/>
+      <c r="P18" s="257"/>
+      <c r="Q18" s="274"/>
+      <c r="R18" s="274"/>
+      <c r="S18" s="268"/>
+      <c r="T18" s="132"/>
+      <c r="U18" s="133"/>
+      <c r="V18" s="131"/>
+      <c r="W18" s="134" t="s">
+        <v>36</v>
+      </c>
+      <c r="X18" s="135" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y18" s="136"/>
     </row>
-    <row r="17" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B17" s="70" t="s">
+    <row r="19" spans="2:25" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B19" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C19" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="109">
         <v>1</v>
       </c>
-      <c r="D17" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="152" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="153" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="154" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="155" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="156"/>
-      <c r="J17" s="157"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="104"/>
-      <c r="N17" s="158"/>
-      <c r="O17" s="159"/>
-      <c r="P17" s="156"/>
-      <c r="Q17" s="160" t="s">
-        <v>37</v>
-      </c>
-      <c r="R17" s="161" t="s">
-        <v>38</v>
-      </c>
-      <c r="S17" s="162"/>
+      <c r="F19" s="110">
+        <v>1</v>
+      </c>
+      <c r="G19" s="111">
+        <v>0</v>
+      </c>
+      <c r="H19" s="112">
+        <v>1</v>
+      </c>
+      <c r="I19" s="113"/>
+      <c r="J19" s="243"/>
+      <c r="K19" s="258"/>
+      <c r="L19" s="258"/>
+      <c r="M19" s="258"/>
+      <c r="N19" s="269"/>
+      <c r="O19" s="243"/>
+      <c r="P19" s="258"/>
+      <c r="Q19" s="258"/>
+      <c r="R19" s="258"/>
+      <c r="S19" s="269"/>
+      <c r="T19" s="114"/>
+      <c r="U19" s="115"/>
+      <c r="V19" s="113"/>
+      <c r="W19" s="117">
+        <v>1</v>
+      </c>
+      <c r="X19" s="118">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="116"/>
     </row>
-    <row r="18" spans="2:19" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B18" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="38" t="s">
+    <row r="20" spans="2:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B20" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="130">
+      <c r="E20" s="39"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="238"/>
+      <c r="K20" s="253"/>
+      <c r="L20" s="253"/>
+      <c r="M20" s="253"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="238"/>
+      <c r="P20" s="253"/>
+      <c r="Q20" s="253"/>
+      <c r="R20" s="253"/>
+      <c r="S20" s="108"/>
+      <c r="T20" s="107"/>
+      <c r="U20" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="V20" s="108"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="54"/>
+    </row>
+    <row r="21" spans="2:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B21" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="42"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="244"/>
+      <c r="K21" s="259"/>
+      <c r="L21" s="259"/>
+      <c r="M21" s="259"/>
+      <c r="N21" s="270"/>
+      <c r="O21" s="244"/>
+      <c r="P21" s="259"/>
+      <c r="Q21" s="259"/>
+      <c r="R21" s="259"/>
+      <c r="S21" s="270"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="43">
+        <v>0.2</v>
+      </c>
+      <c r="W21" s="48"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="56"/>
+    </row>
+    <row r="22" spans="2:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B22" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="101"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102" t="b">
         <v>1</v>
       </c>
-      <c r="F18" s="131">
+      <c r="H22" s="102" t="b">
         <v>1</v>
       </c>
-      <c r="G18" s="132">
-        <v>0</v>
-      </c>
-      <c r="H18" s="133">
+      <c r="I22" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="I18" s="134"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="139"/>
-      <c r="L18" s="139"/>
-      <c r="M18" s="140"/>
-      <c r="N18" s="136"/>
-      <c r="O18" s="137"/>
-      <c r="P18" s="134"/>
-      <c r="Q18" s="141">
-        <v>1</v>
-      </c>
-      <c r="R18" s="142">
-        <v>1</v>
-      </c>
-      <c r="S18" s="138"/>
+      <c r="J22" s="245"/>
+      <c r="K22" s="260"/>
+      <c r="L22" s="260"/>
+      <c r="M22" s="260"/>
+      <c r="N22" s="103"/>
+      <c r="O22" s="245"/>
+      <c r="P22" s="260"/>
+      <c r="Q22" s="260"/>
+      <c r="R22" s="260"/>
+      <c r="S22" s="103"/>
+      <c r="T22" s="101"/>
+      <c r="U22" s="104"/>
+      <c r="V22" s="103"/>
+      <c r="W22" s="105"/>
+      <c r="X22" s="106"/>
+      <c r="Y22" s="103"/>
     </row>
-    <row r="19" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B19" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="16" t="s">
+    <row r="23" spans="2:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B23" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="126"/>
-      <c r="L19" s="126"/>
-      <c r="M19" s="127"/>
-      <c r="N19" s="128"/>
-      <c r="O19" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="P19" s="129"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="58"/>
-    </row>
-    <row r="20" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B20" s="72" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="45">
-        <v>0.2</v>
-      </c>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="60"/>
-    </row>
-    <row r="21" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B21" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="117"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="118" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="119" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" s="120"/>
-      <c r="K21" s="121"/>
-      <c r="L21" s="121"/>
-      <c r="M21" s="122"/>
-      <c r="N21" s="117"/>
-      <c r="O21" s="123"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="124"/>
-      <c r="R21" s="125"/>
-      <c r="S21" s="119"/>
-    </row>
-    <row r="22" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B22" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="40" t="s">
+      <c r="D23" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="54">
+      <c r="E23" s="50">
         <f>0.1*3</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21">
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20">
         <v>1</v>
       </c>
-      <c r="I22" s="55">
+      <c r="I23" s="51">
         <v>1</v>
       </c>
-      <c r="J22" s="107"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="109"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="113"/>
-      <c r="R22" s="115"/>
-      <c r="S22" s="55">
+      <c r="J23" s="246"/>
+      <c r="K23" s="261"/>
+      <c r="L23" s="261"/>
+      <c r="M23" s="261"/>
+      <c r="N23" s="271"/>
+      <c r="O23" s="246"/>
+      <c r="P23" s="261"/>
+      <c r="Q23" s="261"/>
+      <c r="R23" s="261"/>
+      <c r="S23" s="271"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="97"/>
+      <c r="X23" s="99"/>
+      <c r="Y23" s="51">
         <f>0.8*1.4*3</f>
         <v>3.3599999999999994</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="74" t="s">
+    <row r="24" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C24" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="76" t="s">
+      <c r="D24" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="56">
+      <c r="E24" s="52">
         <f>0.1*3</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46">
+      <c r="F24" s="44"/>
+      <c r="G24" s="44">
         <f>0.1*3</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="H23" s="46"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="111"/>
-      <c r="L23" s="111"/>
-      <c r="M23" s="112"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="46">
+      <c r="H24" s="44"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="247"/>
+      <c r="K24" s="262"/>
+      <c r="L24" s="262"/>
+      <c r="M24" s="262"/>
+      <c r="N24" s="272"/>
+      <c r="O24" s="247"/>
+      <c r="P24" s="262"/>
+      <c r="Q24" s="262"/>
+      <c r="R24" s="262"/>
+      <c r="S24" s="272"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="44">
         <v>3</v>
       </c>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="114"/>
-      <c r="R23" s="116">
+      <c r="V24" s="53"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="100">
         <v>3</v>
       </c>
-      <c r="S23" s="47">
+      <c r="Y24" s="45">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:19" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B24" s="249" t="s">
+    <row r="25" spans="2:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B25" s="206" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="207" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="208" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="213" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" s="214" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="216" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="283"/>
+      <c r="K25" s="275" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" s="275" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" s="275" t="b">
+        <v>1</v>
+      </c>
+      <c r="N25" s="282" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25" s="283"/>
+      <c r="P25" s="275" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="275" t="b">
+        <v>1</v>
+      </c>
+      <c r="R25" s="275" t="b">
+        <v>1</v>
+      </c>
+      <c r="S25" s="282" t="b">
+        <v>1</v>
+      </c>
+      <c r="T25" s="213" t="b">
+        <v>1</v>
+      </c>
+      <c r="U25" s="216" t="b">
+        <v>1</v>
+      </c>
+      <c r="V25" s="217" t="b">
+        <v>1</v>
+      </c>
+      <c r="W25" s="218" t="b">
+        <v>1</v>
+      </c>
+      <c r="X25" s="219" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="220" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="209" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="250" t="s">
+      <c r="C26" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="251" t="s">
+      <c r="D26" s="211" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="256" t="b">
+      <c r="E26" s="221" t="b">
         <v>1</v>
       </c>
-      <c r="F24" s="257" t="b">
+      <c r="F26" s="222" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="223" t="b">
         <v>0</v>
       </c>
-      <c r="G24" s="258" t="b">
+      <c r="H26" s="224" t="b">
         <v>1</v>
       </c>
-      <c r="H24" s="259" t="b">
+      <c r="I26" s="225" t="b">
         <v>0</v>
       </c>
-      <c r="I24" s="260" t="b">
+      <c r="J26" s="284"/>
+      <c r="K26" s="281" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="281" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" s="285" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" s="286" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26" s="284"/>
+      <c r="P26" s="281" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="281" t="b">
+        <v>0</v>
+      </c>
+      <c r="R26" s="285" t="b">
+        <v>0</v>
+      </c>
+      <c r="S26" s="286" t="b">
+        <v>0</v>
+      </c>
+      <c r="T26" s="221" t="b">
         <v>1</v>
       </c>
-      <c r="J24" s="261" t="b">
+      <c r="U26" s="222" t="b">
         <v>1</v>
       </c>
-      <c r="K24" s="262" t="b">
+      <c r="V26" s="225" t="b">
         <v>1</v>
       </c>
-      <c r="L24" s="262" t="b">
+      <c r="W26" s="226" t="b">
         <v>1</v>
       </c>
-      <c r="M24" s="263" t="b">
+      <c r="X26" s="227" t="b">
         <v>1</v>
       </c>
-      <c r="N24" s="256" t="b">
+      <c r="Y26" s="228" t="b">
         <v>1</v>
       </c>
-      <c r="O24" s="259" t="b">
-        <v>1</v>
-      </c>
-      <c r="P24" s="260" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="261" t="b">
-        <v>1</v>
-      </c>
-      <c r="R24" s="264" t="b">
-        <v>1</v>
-      </c>
-      <c r="S24" s="265" t="b">
-        <v>1</v>
-      </c>
     </row>
-    <row r="25" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="252" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="253" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="254" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="266" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" s="267" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" s="268" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="269" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="270" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="271" t="b">
-        <v>0</v>
-      </c>
-      <c r="K25" s="272" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" s="272" t="b">
-        <v>0</v>
-      </c>
-      <c r="M25" s="273" t="b">
-        <v>0</v>
-      </c>
-      <c r="N25" s="266" t="b">
-        <v>1</v>
-      </c>
-      <c r="O25" s="267" t="b">
-        <v>1</v>
-      </c>
-      <c r="P25" s="270" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="271" t="b">
-        <v>1</v>
-      </c>
-      <c r="R25" s="274" t="b">
-        <v>1</v>
-      </c>
-      <c r="S25" s="275" t="b">
-        <v>1</v>
-      </c>
+    <row r="27" spans="2:25" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B28" s="296" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="296"/>
+      <c r="D28" s="296"/>
+      <c r="E28" s="296"/>
+      <c r="F28" s="296"/>
     </row>
-    <row r="26" spans="2:19" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="277" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="277"/>
-      <c r="D27" s="277"/>
-      <c r="E27" s="277"/>
-      <c r="F27" s="277"/>
-    </row>
-    <row r="28" spans="2:19" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="276" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="276"/>
+    <row r="29" spans="2:25" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B30" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="295" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="295"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="Q3:R3"/>
+  <mergeCells count="8">
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="W3:X3"/>
     <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="O2:S2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E6:S25">
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>NOT(ISBLANK(E6))</formula>
+  <conditionalFormatting sqref="E7:Y26">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>NOT(ISBLANK(E7))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4932,13 +5601,13 @@
           <x14:formula1>
             <xm:f>'.templates'!$B$4:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>E29:F29</xm:sqref>
+          <xm:sqref>E30:F30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>'.templates'!$D$4:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>E24:S25 E21:S21</xm:sqref>
+          <xm:sqref>E22:Y22 E25:Y26</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4961,25 +5630,25 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="255" t="s">
-        <v>79</v>
+        <v>32</v>
+      </c>
+      <c r="D3" s="212" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="255" t="b">
+        <v>33</v>
+      </c>
+      <c r="D4" s="212" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="255" t="b">
+        <v>34</v>
+      </c>
+      <c r="D5" s="212" t="b">
         <v>1</v>
       </c>
     </row>

--- a/LifespanDesign/.templates/threshold_values.xlsx
+++ b/LifespanDesign/.templates/threshold_values.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b8ba4e84fea5adb/Desktop/program-master (3)/program-master/LifespanDesign/.templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\PycharmProjects\pythonProject\LifespanDesign\.templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="231" documentId="13_ncr:1_{0808BCA0-F03C-44E6-A926-00971FFDD115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DFD0391-D354-41D2-A264-71590E2A9D18}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC3044F-AEAF-4A9B-9C73-9676853098CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,9 +183,6 @@
 (0 = avoidance, 1 = relevance)</t>
   </si>
   <si>
-    <t>DO NOT DELETE, SHIFT, COPY OR INSERT CELLS, ROWS AND COLUMNS</t>
-  </si>
-  <si>
     <t>bedrock, hillside</t>
   </si>
   <si>
@@ -385,6 +382,9 @@
   </si>
   <si>
     <t>bed shear stress</t>
+  </si>
+  <si>
+    <t>YOU CAN ADD FURTHER THRESHOLD ATTRIBUTES AND FEATURES</t>
   </si>
 </sst>
 </file>
@@ -583,7 +583,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3946,6 +3946,61 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="175" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="176" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="176" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="177" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="172" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="178" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="179" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="180" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="181" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="182" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="183" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="157" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="163" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="184" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="175" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3994,62 +4049,7 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="153" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="175" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="176" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="176" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="177" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="172" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="178" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="179" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="180" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="181" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="182" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="183" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="157" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="163" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="184" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="175" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27" customBuiltin="1"/>
@@ -4059,6 +4059,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -4070,15 +4079,6 @@
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4104,10 +4104,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D3:D5" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D3:D5" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="D3:D5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Bool" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Bool" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4378,8 +4378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Y30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4411,37 +4411,37 @@
   <sheetData>
     <row r="1" spans="2:25" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="299" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="300"/>
-      <c r="G2" s="300"/>
-      <c r="H2" s="300"/>
-      <c r="I2" s="301"/>
-      <c r="J2" s="308" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" s="309"/>
-      <c r="L2" s="309"/>
-      <c r="M2" s="309"/>
-      <c r="N2" s="310"/>
-      <c r="O2" s="308" t="s">
-        <v>85</v>
-      </c>
-      <c r="P2" s="309"/>
-      <c r="Q2" s="309"/>
-      <c r="R2" s="309"/>
-      <c r="S2" s="310"/>
-      <c r="T2" s="302" t="s">
-        <v>80</v>
-      </c>
-      <c r="U2" s="303"/>
-      <c r="V2" s="304"/>
-      <c r="W2" s="305" t="s">
-        <v>75</v>
-      </c>
-      <c r="X2" s="306"/>
-      <c r="Y2" s="307"/>
+      <c r="E2" s="318" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="319"/>
+      <c r="G2" s="319"/>
+      <c r="H2" s="319"/>
+      <c r="I2" s="320"/>
+      <c r="J2" s="327" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="328"/>
+      <c r="L2" s="328"/>
+      <c r="M2" s="328"/>
+      <c r="N2" s="329"/>
+      <c r="O2" s="327" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" s="328"/>
+      <c r="Q2" s="328"/>
+      <c r="R2" s="328"/>
+      <c r="S2" s="329"/>
+      <c r="T2" s="321" t="s">
+        <v>79</v>
+      </c>
+      <c r="U2" s="322"/>
+      <c r="V2" s="323"/>
+      <c r="W2" s="324" t="s">
+        <v>74</v>
+      </c>
+      <c r="X2" s="325"/>
+      <c r="Y2" s="326"/>
     </row>
     <row r="3" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="71"/>
@@ -4469,17 +4469,17 @@
       <c r="T3" s="74"/>
       <c r="U3" s="76"/>
       <c r="V3" s="78"/>
-      <c r="W3" s="297" t="s">
+      <c r="W3" s="316" t="s">
         <v>22</v>
       </c>
-      <c r="X3" s="298"/>
+      <c r="X3" s="317"/>
       <c r="Y3" s="89" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:25" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B4" s="82" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="83" t="s">
         <v>6</v>
@@ -4488,72 +4488,72 @@
         <v>15</v>
       </c>
       <c r="E4" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="86" t="s">
+      <c r="H4" s="87" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="232" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="203" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="203" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="203" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="204" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="248" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" s="293" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q4" s="232" t="s">
+        <v>88</v>
+      </c>
+      <c r="R4" s="292" t="s">
+        <v>90</v>
+      </c>
+      <c r="S4" s="204" t="s">
+        <v>93</v>
+      </c>
+      <c r="T4" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="U4" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="V4" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="W4" s="197" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="87" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="88" t="s">
-        <v>72</v>
-      </c>
-      <c r="J4" s="232" t="s">
-        <v>84</v>
-      </c>
-      <c r="K4" s="203" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="203" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="203" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="204" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="248" t="s">
-        <v>86</v>
-      </c>
-      <c r="P4" s="293" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q4" s="232" t="s">
-        <v>89</v>
-      </c>
-      <c r="R4" s="292" t="s">
-        <v>91</v>
-      </c>
-      <c r="S4" s="204" t="s">
-        <v>94</v>
-      </c>
-      <c r="T4" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="U4" s="87" t="s">
+      <c r="X4" s="198" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y4" s="88" t="s">
         <v>73</v>
-      </c>
-      <c r="V4" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="W4" s="197" t="s">
-        <v>43</v>
-      </c>
-      <c r="X4" s="198" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y4" s="88" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="79" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="80" t="s">
         <v>6</v>
@@ -4562,103 +4562,103 @@
         <v>15</v>
       </c>
       <c r="E5" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="199" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="290" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="278" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="278" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="205" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="288" t="s">
+        <v>85</v>
+      </c>
+      <c r="P5" s="291" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q5" s="291" t="s">
+        <v>89</v>
+      </c>
+      <c r="R5" s="291" t="s">
+        <v>91</v>
+      </c>
+      <c r="S5" s="205" t="s">
+        <v>92</v>
+      </c>
+      <c r="T5" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="U5" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="V5" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="W5" s="199" t="s">
+        <v>52</v>
+      </c>
+      <c r="X5" s="200" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y5" s="92" t="s">
         <v>50</v>
-      </c>
-      <c r="F5" s="91" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" s="199" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" s="290" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" s="278" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="278" t="s">
-        <v>57</v>
-      </c>
-      <c r="N5" s="205" t="s">
-        <v>58</v>
-      </c>
-      <c r="O5" s="288" t="s">
-        <v>86</v>
-      </c>
-      <c r="P5" s="291" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q5" s="291" t="s">
-        <v>90</v>
-      </c>
-      <c r="R5" s="291" t="s">
-        <v>92</v>
-      </c>
-      <c r="S5" s="205" t="s">
-        <v>93</v>
-      </c>
-      <c r="T5" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="U5" s="91" t="s">
-        <v>59</v>
-      </c>
-      <c r="V5" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="W5" s="199" t="s">
-        <v>53</v>
-      </c>
-      <c r="X5" s="200" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y5" s="92" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="329" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="330" t="s">
+      <c r="B6" s="312" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="313" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="311"/>
-      <c r="F6" s="322"/>
-      <c r="G6" s="322"/>
-      <c r="H6" s="321"/>
-      <c r="I6" s="313"/>
-      <c r="J6" s="312"/>
-      <c r="K6" s="325"/>
-      <c r="L6" s="314"/>
-      <c r="M6" s="326"/>
-      <c r="N6" s="315"/>
-      <c r="O6" s="314"/>
-      <c r="P6" s="324"/>
-      <c r="Q6" s="327"/>
-      <c r="R6" s="314"/>
-      <c r="S6" s="328"/>
-      <c r="T6" s="311"/>
-      <c r="U6" s="319"/>
-      <c r="V6" s="320"/>
-      <c r="W6" s="316"/>
-      <c r="X6" s="317"/>
-      <c r="Y6" s="320"/>
+      <c r="E6" s="295"/>
+      <c r="F6" s="306"/>
+      <c r="G6" s="306"/>
+      <c r="H6" s="305"/>
+      <c r="I6" s="297"/>
+      <c r="J6" s="296"/>
+      <c r="K6" s="308"/>
+      <c r="L6" s="298"/>
+      <c r="M6" s="309"/>
+      <c r="N6" s="299"/>
+      <c r="O6" s="298"/>
+      <c r="P6" s="307"/>
+      <c r="Q6" s="310"/>
+      <c r="R6" s="298"/>
+      <c r="S6" s="311"/>
+      <c r="T6" s="295"/>
+      <c r="U6" s="303"/>
+      <c r="V6" s="304"/>
+      <c r="W6" s="300"/>
+      <c r="X6" s="301"/>
+      <c r="Y6" s="304"/>
     </row>
     <row r="7" spans="2:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B7" s="318" t="s">
+      <c r="B7" s="302" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="57" t="s">
@@ -4717,7 +4717,7 @@
     </row>
     <row r="8" spans="2:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="229" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
@@ -4769,7 +4769,7 @@
     </row>
     <row r="9" spans="2:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9" s="230" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>2</v>
@@ -4857,7 +4857,7 @@
       <c r="Y10" s="170"/>
     </row>
     <row r="11" spans="2:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="323" t="s">
+      <c r="B11" s="330" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -5049,7 +5049,7 @@
     </row>
     <row r="16" spans="2:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B16" s="294" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>2</v>
@@ -5100,16 +5100,16 @@
         <v>15</v>
       </c>
       <c r="E17" s="119" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" s="120" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G17" s="121" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="122" t="s">
         <v>29</v>
-      </c>
-      <c r="H17" s="122" t="s">
-        <v>30</v>
       </c>
       <c r="I17" s="123"/>
       <c r="J17" s="241"/>
@@ -5126,10 +5126,10 @@
       <c r="U17" s="125"/>
       <c r="V17" s="123"/>
       <c r="W17" s="93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X17" s="94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y17" s="126"/>
     </row>
@@ -5144,16 +5144,16 @@
         <v>15</v>
       </c>
       <c r="E18" s="127" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="128" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" s="129" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H18" s="130" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I18" s="131"/>
       <c r="J18" s="242"/>
@@ -5170,10 +5170,10 @@
       <c r="U18" s="133"/>
       <c r="V18" s="131"/>
       <c r="W18" s="134" t="s">
+        <v>35</v>
+      </c>
+      <c r="X18" s="135" t="s">
         <v>36</v>
-      </c>
-      <c r="X18" s="135" t="s">
-        <v>37</v>
       </c>
       <c r="Y18" s="136"/>
     </row>
@@ -5257,7 +5257,7 @@
     </row>
     <row r="21" spans="2:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B21" s="66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>2</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="25" spans="2:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B25" s="206" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="207" t="s">
         <v>14</v>
@@ -5485,7 +5485,7 @@
     </row>
     <row r="26" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="209" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="210" t="s">
         <v>14</v>
@@ -5555,25 +5555,25 @@
     </row>
     <row r="27" spans="2:25" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B28" s="296" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="296"/>
-      <c r="D28" s="296"/>
-      <c r="E28" s="296"/>
-      <c r="F28" s="296"/>
+      <c r="B28" s="315" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="315"/>
+      <c r="D28" s="315"/>
+      <c r="E28" s="315"/>
+      <c r="F28" s="315"/>
     </row>
     <row r="29" spans="2:25" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B30" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
-      <c r="E30" s="295" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="295"/>
+      <c r="E30" s="314" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="314"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5587,7 +5587,7 @@
     <mergeCell ref="O2:S2"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:Y26">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>NOT(ISBLANK(E7))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5630,15 +5630,15 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="212" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="212" t="b">
         <v>0</v>
@@ -5646,7 +5646,7 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="212" t="b">
         <v>1</v>

--- a/LifespanDesign/.templates/threshold_values.xlsx
+++ b/LifespanDesign/.templates/threshold_values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\PycharmProjects\pythonProject\LifespanDesign\.templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC3044F-AEAF-4A9B-9C73-9676853098CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739ADF3E-A4A9-43E7-AA2A-27177F04C1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,7 +384,7 @@
     <t>bed shear stress</t>
   </si>
   <si>
-    <t>YOU CAN ADD FURTHER THRESHOLD ATTRIBUTES AND FEATURES</t>
+    <t>YOU CAN ADD ADDITIONAL THRESHOLD ATTRIBUTES AND FEATURES</t>
   </si>
 </sst>
 </file>
@@ -4001,6 +4001,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4049,7 +4050,6 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="153" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27" customBuiltin="1"/>
@@ -4378,8 +4378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Y30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4411,37 +4411,37 @@
   <sheetData>
     <row r="1" spans="2:25" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="318" t="s">
+      <c r="E2" s="319" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="319"/>
-      <c r="G2" s="319"/>
-      <c r="H2" s="319"/>
-      <c r="I2" s="320"/>
-      <c r="J2" s="327" t="s">
+      <c r="F2" s="320"/>
+      <c r="G2" s="320"/>
+      <c r="H2" s="320"/>
+      <c r="I2" s="321"/>
+      <c r="J2" s="328" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="328"/>
-      <c r="L2" s="328"/>
-      <c r="M2" s="328"/>
-      <c r="N2" s="329"/>
-      <c r="O2" s="327" t="s">
+      <c r="K2" s="329"/>
+      <c r="L2" s="329"/>
+      <c r="M2" s="329"/>
+      <c r="N2" s="330"/>
+      <c r="O2" s="328" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="328"/>
-      <c r="Q2" s="328"/>
-      <c r="R2" s="328"/>
-      <c r="S2" s="329"/>
-      <c r="T2" s="321" t="s">
+      <c r="P2" s="329"/>
+      <c r="Q2" s="329"/>
+      <c r="R2" s="329"/>
+      <c r="S2" s="330"/>
+      <c r="T2" s="322" t="s">
         <v>79</v>
       </c>
-      <c r="U2" s="322"/>
-      <c r="V2" s="323"/>
-      <c r="W2" s="324" t="s">
+      <c r="U2" s="323"/>
+      <c r="V2" s="324"/>
+      <c r="W2" s="325" t="s">
         <v>74</v>
       </c>
-      <c r="X2" s="325"/>
-      <c r="Y2" s="326"/>
+      <c r="X2" s="326"/>
+      <c r="Y2" s="327"/>
     </row>
     <row r="3" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="71"/>
@@ -4469,10 +4469,10 @@
       <c r="T3" s="74"/>
       <c r="U3" s="76"/>
       <c r="V3" s="78"/>
-      <c r="W3" s="316" t="s">
+      <c r="W3" s="317" t="s">
         <v>22</v>
       </c>
-      <c r="X3" s="317"/>
+      <c r="X3" s="318"/>
       <c r="Y3" s="89" t="s">
         <v>69</v>
       </c>
@@ -4857,7 +4857,7 @@
       <c r="Y10" s="170"/>
     </row>
     <row r="11" spans="2:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="330" t="s">
+      <c r="B11" s="314" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -5438,7 +5438,9 @@
       <c r="I25" s="217" t="b">
         <v>1</v>
       </c>
-      <c r="J25" s="283"/>
+      <c r="J25" s="283" t="b">
+        <v>1</v>
+      </c>
       <c r="K25" s="275" t="b">
         <v>1</v>
       </c>
@@ -5451,7 +5453,9 @@
       <c r="N25" s="282" t="b">
         <v>1</v>
       </c>
-      <c r="O25" s="283"/>
+      <c r="O25" s="283" t="b">
+        <v>1</v>
+      </c>
       <c r="P25" s="275" t="b">
         <v>1</v>
       </c>
@@ -5508,7 +5512,9 @@
       <c r="I26" s="225" t="b">
         <v>0</v>
       </c>
-      <c r="J26" s="284"/>
+      <c r="J26" s="284" t="b">
+        <v>0</v>
+      </c>
       <c r="K26" s="281" t="b">
         <v>0</v>
       </c>
@@ -5521,7 +5527,9 @@
       <c r="N26" s="286" t="b">
         <v>0</v>
       </c>
-      <c r="O26" s="284"/>
+      <c r="O26" s="284" t="b">
+        <v>0</v>
+      </c>
       <c r="P26" s="281" t="b">
         <v>0</v>
       </c>
@@ -5555,13 +5563,13 @@
     </row>
     <row r="27" spans="2:25" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B28" s="315" t="s">
+      <c r="B28" s="316" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="315"/>
-      <c r="D28" s="315"/>
-      <c r="E28" s="315"/>
-      <c r="F28" s="315"/>
+      <c r="C28" s="316"/>
+      <c r="D28" s="316"/>
+      <c r="E28" s="316"/>
+      <c r="F28" s="316"/>
     </row>
     <row r="29" spans="2:25" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="2:25" x14ac:dyDescent="0.25">
@@ -5570,10 +5578,10 @@
       </c>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
-      <c r="E30" s="314" t="s">
+      <c r="E30" s="315" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="314"/>
+      <c r="F30" s="315"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/LifespanDesign/.templates/threshold_values.xlsx
+++ b/LifespanDesign/.templates/threshold_values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\PycharmProjects\pythonProject\LifespanDesign\.templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739ADF3E-A4A9-43E7-AA2A-27177F04C1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84145CDC-4828-4D05-81FA-7B94C5D58C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -588,7 +588,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="185">
+  <borders count="183">
     <border>
       <left/>
       <right/>
@@ -2601,15 +2601,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="1"/>
       </top>
@@ -2841,19 +2832,6 @@
       </left>
       <right style="thin">
         <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -3110,7 +3088,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="331">
+  <cellXfs count="329">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3766,103 +3744,100 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="145" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="145" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="146" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="147" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="145" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="146" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="147" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="148" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="147" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="149" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="147" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="148" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="146" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="145" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="148" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="146" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="147" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="145" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="148" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="149" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="150" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="154" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="155" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="156" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="154" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="155" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="156" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="157" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="156" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="157" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="158" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="157" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="155" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="159" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="154" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="158" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="156" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="158" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="155" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="155" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="157" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="154" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="158" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="159" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="160" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="61" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3877,7 +3852,7 @@
     <xf numFmtId="1" fontId="15" fillId="2" borderId="65" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="69" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3886,116 +3861,113 @@
     <xf numFmtId="2" fontId="1" fillId="3" borderId="71" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="155" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="159" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="162" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="163" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="165" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="164" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="166" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="158" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="154" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="158" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="161" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="162" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="163" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="164" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="157" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="165" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="153" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="143" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="166" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="168" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="167" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="154" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="143" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="168" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="170" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="169" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="144" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="171" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="173" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="174" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="172" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="169" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="171" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="172" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="170" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="173" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="174" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="174" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="175" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="170" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="176" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="176" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="177" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="172" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="178" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="179" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="180" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="181" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="180" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="181" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="156" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="162" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="182" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="183" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="157" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="163" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="184" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="175" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="173" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4041,13 +4013,13 @@
     <xf numFmtId="0" fontId="14" fillId="10" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="150" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="151" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="152" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="153" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4378,8 +4350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Y30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4411,37 +4383,37 @@
   <sheetData>
     <row r="1" spans="2:25" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="319" t="s">
+      <c r="E2" s="317" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="320"/>
-      <c r="G2" s="320"/>
-      <c r="H2" s="320"/>
-      <c r="I2" s="321"/>
-      <c r="J2" s="328" t="s">
+      <c r="F2" s="318"/>
+      <c r="G2" s="318"/>
+      <c r="H2" s="318"/>
+      <c r="I2" s="319"/>
+      <c r="J2" s="326" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="329"/>
-      <c r="L2" s="329"/>
-      <c r="M2" s="329"/>
-      <c r="N2" s="330"/>
-      <c r="O2" s="328" t="s">
+      <c r="K2" s="327"/>
+      <c r="L2" s="327"/>
+      <c r="M2" s="327"/>
+      <c r="N2" s="328"/>
+      <c r="O2" s="326" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="329"/>
-      <c r="Q2" s="329"/>
-      <c r="R2" s="329"/>
-      <c r="S2" s="330"/>
-      <c r="T2" s="322" t="s">
+      <c r="P2" s="327"/>
+      <c r="Q2" s="327"/>
+      <c r="R2" s="327"/>
+      <c r="S2" s="328"/>
+      <c r="T2" s="320" t="s">
         <v>79</v>
       </c>
-      <c r="U2" s="323"/>
-      <c r="V2" s="324"/>
-      <c r="W2" s="325" t="s">
+      <c r="U2" s="321"/>
+      <c r="V2" s="322"/>
+      <c r="W2" s="323" t="s">
         <v>74</v>
       </c>
-      <c r="X2" s="326"/>
-      <c r="Y2" s="327"/>
+      <c r="X2" s="324"/>
+      <c r="Y2" s="325"/>
     </row>
     <row r="3" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="71"/>
@@ -4461,18 +4433,18 @@
       <c r="L3" s="201"/>
       <c r="M3" s="201"/>
       <c r="N3" s="202"/>
-      <c r="O3" s="287"/>
-      <c r="P3" s="289"/>
-      <c r="Q3" s="289"/>
-      <c r="R3" s="289"/>
+      <c r="O3" s="285"/>
+      <c r="P3" s="287"/>
+      <c r="Q3" s="287"/>
+      <c r="R3" s="287"/>
       <c r="S3" s="202"/>
       <c r="T3" s="74"/>
       <c r="U3" s="76"/>
       <c r="V3" s="78"/>
-      <c r="W3" s="317" t="s">
+      <c r="W3" s="315" t="s">
         <v>22</v>
       </c>
-      <c r="X3" s="318"/>
+      <c r="X3" s="316"/>
       <c r="Y3" s="89" t="s">
         <v>69</v>
       </c>
@@ -4517,16 +4489,16 @@
       <c r="N4" s="204" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="248" t="s">
+      <c r="O4" s="247" t="s">
         <v>85</v>
       </c>
-      <c r="P4" s="293" t="s">
+      <c r="P4" s="291" t="s">
         <v>86</v>
       </c>
       <c r="Q4" s="232" t="s">
         <v>88</v>
       </c>
-      <c r="R4" s="292" t="s">
+      <c r="R4" s="290" t="s">
         <v>90</v>
       </c>
       <c r="S4" s="204" t="s">
@@ -4579,28 +4551,28 @@
       <c r="J5" s="199" t="s">
         <v>83</v>
       </c>
-      <c r="K5" s="290" t="s">
+      <c r="K5" s="288" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="278" t="s">
+      <c r="L5" s="276" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="278" t="s">
+      <c r="M5" s="276" t="s">
         <v>56</v>
       </c>
       <c r="N5" s="205" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="288" t="s">
+      <c r="O5" s="286" t="s">
         <v>85</v>
       </c>
-      <c r="P5" s="291" t="s">
+      <c r="P5" s="289" t="s">
         <v>87</v>
       </c>
-      <c r="Q5" s="291" t="s">
+      <c r="Q5" s="289" t="s">
         <v>89</v>
       </c>
-      <c r="R5" s="291" t="s">
+      <c r="R5" s="289" t="s">
         <v>91</v>
       </c>
       <c r="S5" s="205" t="s">
@@ -4626,39 +4598,39 @@
       </c>
     </row>
     <row r="6" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="312" t="s">
+      <c r="B6" s="310" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="313" t="s">
+      <c r="C6" s="311" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="295"/>
-      <c r="F6" s="306"/>
-      <c r="G6" s="306"/>
-      <c r="H6" s="305"/>
-      <c r="I6" s="297"/>
-      <c r="J6" s="296"/>
-      <c r="K6" s="308"/>
-      <c r="L6" s="298"/>
-      <c r="M6" s="309"/>
-      <c r="N6" s="299"/>
-      <c r="O6" s="298"/>
-      <c r="P6" s="307"/>
-      <c r="Q6" s="310"/>
-      <c r="R6" s="298"/>
-      <c r="S6" s="311"/>
-      <c r="T6" s="295"/>
-      <c r="U6" s="303"/>
-      <c r="V6" s="304"/>
-      <c r="W6" s="300"/>
-      <c r="X6" s="301"/>
-      <c r="Y6" s="304"/>
+      <c r="E6" s="293"/>
+      <c r="F6" s="304"/>
+      <c r="G6" s="304"/>
+      <c r="H6" s="303"/>
+      <c r="I6" s="295"/>
+      <c r="J6" s="294"/>
+      <c r="K6" s="306"/>
+      <c r="L6" s="296"/>
+      <c r="M6" s="307"/>
+      <c r="N6" s="297"/>
+      <c r="O6" s="296"/>
+      <c r="P6" s="305"/>
+      <c r="Q6" s="308"/>
+      <c r="R6" s="296"/>
+      <c r="S6" s="309"/>
+      <c r="T6" s="293"/>
+      <c r="U6" s="301"/>
+      <c r="V6" s="302"/>
+      <c r="W6" s="298"/>
+      <c r="X6" s="299"/>
+      <c r="Y6" s="302"/>
     </row>
     <row r="7" spans="2:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B7" s="302" t="s">
+      <c r="B7" s="300" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="57" t="s">
@@ -4678,24 +4650,28 @@
       <c r="I7" s="195">
         <v>4.7E-2</v>
       </c>
-      <c r="J7" s="233"/>
-      <c r="K7" s="276">
-        <v>4.7E-2</v>
-      </c>
-      <c r="L7" s="280"/>
-      <c r="M7" s="277">
-        <v>4.7E-2</v>
+      <c r="J7" s="275">
+        <v>0.06</v>
+      </c>
+      <c r="K7" s="275">
+        <v>0.06</v>
+      </c>
+      <c r="L7" s="278"/>
+      <c r="M7" s="275">
+        <v>0.06</v>
       </c>
       <c r="N7" s="195">
         <v>0.1</v>
       </c>
-      <c r="O7" s="233"/>
-      <c r="P7" s="276">
-        <v>4.7E-2</v>
-      </c>
-      <c r="Q7" s="280"/>
-      <c r="R7" s="277">
-        <v>4.7E-2</v>
+      <c r="O7" s="275">
+        <v>0.06</v>
+      </c>
+      <c r="P7" s="275">
+        <v>0.06</v>
+      </c>
+      <c r="Q7" s="278"/>
+      <c r="R7" s="275">
+        <v>0.06</v>
       </c>
       <c r="S7" s="195">
         <v>0.1</v>
@@ -4732,30 +4708,30 @@
       </c>
       <c r="H8" s="150"/>
       <c r="I8" s="151"/>
-      <c r="J8" s="234"/>
-      <c r="K8" s="279">
+      <c r="J8" s="233"/>
+      <c r="K8" s="277">
         <v>1</v>
       </c>
-      <c r="L8" s="249">
+      <c r="L8" s="248">
         <v>1</v>
       </c>
-      <c r="M8" s="249">
+      <c r="M8" s="248">
         <v>1</v>
       </c>
-      <c r="N8" s="263">
+      <c r="N8" s="262">
         <v>1</v>
       </c>
-      <c r="O8" s="234"/>
-      <c r="P8" s="279">
+      <c r="O8" s="233"/>
+      <c r="P8" s="277">
         <v>1</v>
       </c>
-      <c r="Q8" s="249">
+      <c r="Q8" s="248">
         <v>1</v>
       </c>
-      <c r="R8" s="249">
+      <c r="R8" s="248">
         <v>1</v>
       </c>
-      <c r="S8" s="263">
+      <c r="S8" s="262">
         <v>1</v>
       </c>
       <c r="T8" s="183"/>
@@ -4784,30 +4760,30 @@
       </c>
       <c r="H9" s="158"/>
       <c r="I9" s="159"/>
-      <c r="J9" s="235"/>
-      <c r="K9" s="250">
+      <c r="J9" s="234"/>
+      <c r="K9" s="249">
         <v>7</v>
       </c>
-      <c r="L9" s="250">
+      <c r="L9" s="249">
         <v>7</v>
       </c>
-      <c r="M9" s="250">
+      <c r="M9" s="249">
         <v>7</v>
       </c>
-      <c r="N9" s="264">
+      <c r="N9" s="263">
         <v>7</v>
       </c>
-      <c r="O9" s="235"/>
-      <c r="P9" s="250">
+      <c r="O9" s="234"/>
+      <c r="P9" s="249">
         <v>7</v>
       </c>
-      <c r="Q9" s="250">
+      <c r="Q9" s="249">
         <v>7</v>
       </c>
-      <c r="R9" s="250">
+      <c r="R9" s="249">
         <v>7</v>
       </c>
-      <c r="S9" s="264">
+      <c r="S9" s="263">
         <v>7</v>
       </c>
       <c r="T9" s="187"/>
@@ -4839,15 +4815,15 @@
       <c r="G10" s="163"/>
       <c r="H10" s="164"/>
       <c r="I10" s="165"/>
-      <c r="J10" s="236"/>
-      <c r="K10" s="251"/>
-      <c r="L10" s="251"/>
-      <c r="M10" s="251"/>
+      <c r="J10" s="235"/>
+      <c r="K10" s="250"/>
+      <c r="L10" s="250"/>
+      <c r="M10" s="250"/>
       <c r="N10" s="168"/>
-      <c r="O10" s="236"/>
-      <c r="P10" s="251"/>
-      <c r="Q10" s="251"/>
-      <c r="R10" s="251"/>
+      <c r="O10" s="235"/>
+      <c r="P10" s="250"/>
+      <c r="Q10" s="250"/>
+      <c r="R10" s="250"/>
       <c r="S10" s="168"/>
       <c r="T10" s="167"/>
       <c r="U10" s="180"/>
@@ -4857,7 +4833,7 @@
       <c r="Y10" s="170"/>
     </row>
     <row r="11" spans="2:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="314" t="s">
+      <c r="B11" s="312" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -4873,15 +4849,15 @@
       <c r="G11" s="172"/>
       <c r="H11" s="173"/>
       <c r="I11" s="174"/>
-      <c r="J11" s="237"/>
-      <c r="K11" s="252"/>
-      <c r="L11" s="252"/>
-      <c r="M11" s="252"/>
+      <c r="J11" s="236"/>
+      <c r="K11" s="251"/>
+      <c r="L11" s="251"/>
+      <c r="M11" s="251"/>
       <c r="N11" s="177"/>
-      <c r="O11" s="237"/>
-      <c r="P11" s="252"/>
-      <c r="Q11" s="252"/>
-      <c r="R11" s="252"/>
+      <c r="O11" s="236"/>
+      <c r="P11" s="251"/>
+      <c r="Q11" s="251"/>
+      <c r="R11" s="251"/>
       <c r="S11" s="177"/>
       <c r="T11" s="176"/>
       <c r="U11" s="181"/>
@@ -4905,29 +4881,29 @@
       <c r="G12" s="149"/>
       <c r="H12" s="150"/>
       <c r="I12" s="151"/>
-      <c r="J12" s="234"/>
-      <c r="K12" s="249">
+      <c r="J12" s="233"/>
+      <c r="K12" s="248">
         <v>1</v>
       </c>
-      <c r="L12" s="249">
+      <c r="L12" s="248">
         <f>1.5*0.2*7</f>
         <v>2.1000000000000005</v>
       </c>
-      <c r="M12" s="249"/>
-      <c r="N12" s="263">
+      <c r="M12" s="248"/>
+      <c r="N12" s="262">
         <f>0.2*7+0.7</f>
         <v>2.1</v>
       </c>
-      <c r="O12" s="234"/>
-      <c r="P12" s="249">
+      <c r="O12" s="233"/>
+      <c r="P12" s="248">
         <v>1</v>
       </c>
-      <c r="Q12" s="249">
+      <c r="Q12" s="248">
         <f>1.5*0.2*7</f>
         <v>2.1000000000000005</v>
       </c>
-      <c r="R12" s="249"/>
-      <c r="S12" s="263">
+      <c r="R12" s="248"/>
+      <c r="S12" s="262">
         <f>0.2*7+0.7</f>
         <v>2.1</v>
       </c>
@@ -4957,20 +4933,20 @@
       <c r="G13" s="157"/>
       <c r="H13" s="158"/>
       <c r="I13" s="159"/>
-      <c r="J13" s="235"/>
-      <c r="K13" s="250"/>
-      <c r="L13" s="250">
+      <c r="J13" s="234"/>
+      <c r="K13" s="249"/>
+      <c r="L13" s="249">
         <v>3</v>
       </c>
-      <c r="M13" s="250"/>
-      <c r="N13" s="264"/>
-      <c r="O13" s="235"/>
-      <c r="P13" s="250"/>
-      <c r="Q13" s="250">
+      <c r="M13" s="249"/>
+      <c r="N13" s="263"/>
+      <c r="O13" s="234"/>
+      <c r="P13" s="249"/>
+      <c r="Q13" s="249">
         <v>3</v>
       </c>
-      <c r="R13" s="250"/>
-      <c r="S13" s="264"/>
+      <c r="R13" s="249"/>
+      <c r="S13" s="263"/>
       <c r="T13" s="155"/>
       <c r="U13" s="156"/>
       <c r="V13" s="159"/>
@@ -4993,15 +4969,15 @@
       <c r="G14" s="13"/>
       <c r="H14" s="11"/>
       <c r="I14" s="40"/>
-      <c r="J14" s="238"/>
-      <c r="K14" s="253"/>
-      <c r="L14" s="253"/>
-      <c r="M14" s="253"/>
+      <c r="J14" s="237"/>
+      <c r="K14" s="252"/>
+      <c r="L14" s="252"/>
+      <c r="M14" s="252"/>
       <c r="N14" s="108"/>
-      <c r="O14" s="238"/>
-      <c r="P14" s="253"/>
-      <c r="Q14" s="253"/>
-      <c r="R14" s="253"/>
+      <c r="O14" s="237"/>
+      <c r="P14" s="252"/>
+      <c r="Q14" s="252"/>
+      <c r="R14" s="252"/>
       <c r="S14" s="108"/>
       <c r="T14" s="39">
         <v>1</v>
@@ -5027,16 +5003,16 @@
       <c r="G15" s="140"/>
       <c r="H15" s="141"/>
       <c r="I15" s="142"/>
-      <c r="J15" s="239"/>
-      <c r="K15" s="254"/>
-      <c r="L15" s="254"/>
-      <c r="M15" s="254"/>
-      <c r="N15" s="265"/>
-      <c r="O15" s="239"/>
-      <c r="P15" s="254"/>
-      <c r="Q15" s="254"/>
-      <c r="R15" s="254"/>
-      <c r="S15" s="265"/>
+      <c r="J15" s="238"/>
+      <c r="K15" s="253"/>
+      <c r="L15" s="253"/>
+      <c r="M15" s="253"/>
+      <c r="N15" s="264"/>
+      <c r="O15" s="238"/>
+      <c r="P15" s="253"/>
+      <c r="Q15" s="253"/>
+      <c r="R15" s="253"/>
+      <c r="S15" s="264"/>
       <c r="T15" s="143"/>
       <c r="U15" s="144"/>
       <c r="V15" s="142"/>
@@ -5048,7 +5024,7 @@
       </c>
     </row>
     <row r="16" spans="2:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B16" s="294" t="s">
+      <c r="B16" s="292" t="s">
         <v>68</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -5064,16 +5040,16 @@
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
       <c r="I16" s="41"/>
-      <c r="J16" s="240"/>
-      <c r="K16" s="255"/>
-      <c r="L16" s="255"/>
-      <c r="M16" s="255"/>
-      <c r="N16" s="266"/>
-      <c r="O16" s="240"/>
-      <c r="P16" s="255"/>
-      <c r="Q16" s="255"/>
-      <c r="R16" s="255"/>
-      <c r="S16" s="266"/>
+      <c r="J16" s="239"/>
+      <c r="K16" s="254"/>
+      <c r="L16" s="254"/>
+      <c r="M16" s="254"/>
+      <c r="N16" s="265"/>
+      <c r="O16" s="239"/>
+      <c r="P16" s="254"/>
+      <c r="Q16" s="254"/>
+      <c r="R16" s="254"/>
+      <c r="S16" s="265"/>
       <c r="T16" s="95">
         <v>10</v>
       </c>
@@ -5112,16 +5088,16 @@
         <v>29</v>
       </c>
       <c r="I17" s="123"/>
-      <c r="J17" s="241"/>
-      <c r="K17" s="256"/>
-      <c r="L17" s="273"/>
-      <c r="M17" s="273"/>
-      <c r="N17" s="267"/>
-      <c r="O17" s="241"/>
-      <c r="P17" s="256"/>
-      <c r="Q17" s="273"/>
-      <c r="R17" s="273"/>
-      <c r="S17" s="267"/>
+      <c r="J17" s="240"/>
+      <c r="K17" s="255"/>
+      <c r="L17" s="272"/>
+      <c r="M17" s="272"/>
+      <c r="N17" s="266"/>
+      <c r="O17" s="240"/>
+      <c r="P17" s="255"/>
+      <c r="Q17" s="272"/>
+      <c r="R17" s="272"/>
+      <c r="S17" s="266"/>
       <c r="T17" s="124"/>
       <c r="U17" s="125"/>
       <c r="V17" s="123"/>
@@ -5156,16 +5132,16 @@
         <v>37</v>
       </c>
       <c r="I18" s="131"/>
-      <c r="J18" s="242"/>
-      <c r="K18" s="257"/>
-      <c r="L18" s="274"/>
-      <c r="M18" s="274"/>
-      <c r="N18" s="268"/>
-      <c r="O18" s="242"/>
-      <c r="P18" s="257"/>
-      <c r="Q18" s="274"/>
-      <c r="R18" s="274"/>
-      <c r="S18" s="268"/>
+      <c r="J18" s="241"/>
+      <c r="K18" s="256"/>
+      <c r="L18" s="273"/>
+      <c r="M18" s="273"/>
+      <c r="N18" s="267"/>
+      <c r="O18" s="241"/>
+      <c r="P18" s="256"/>
+      <c r="Q18" s="273"/>
+      <c r="R18" s="273"/>
+      <c r="S18" s="267"/>
       <c r="T18" s="132"/>
       <c r="U18" s="133"/>
       <c r="V18" s="131"/>
@@ -5200,16 +5176,16 @@
         <v>1</v>
       </c>
       <c r="I19" s="113"/>
-      <c r="J19" s="243"/>
-      <c r="K19" s="258"/>
-      <c r="L19" s="258"/>
-      <c r="M19" s="258"/>
-      <c r="N19" s="269"/>
-      <c r="O19" s="243"/>
-      <c r="P19" s="258"/>
-      <c r="Q19" s="258"/>
-      <c r="R19" s="258"/>
-      <c r="S19" s="269"/>
+      <c r="J19" s="242"/>
+      <c r="K19" s="257"/>
+      <c r="L19" s="257"/>
+      <c r="M19" s="257"/>
+      <c r="N19" s="268"/>
+      <c r="O19" s="242"/>
+      <c r="P19" s="257"/>
+      <c r="Q19" s="257"/>
+      <c r="R19" s="257"/>
+      <c r="S19" s="268"/>
       <c r="T19" s="114"/>
       <c r="U19" s="115"/>
       <c r="V19" s="113"/>
@@ -5236,15 +5212,15 @@
       <c r="G20" s="13"/>
       <c r="H20" s="11"/>
       <c r="I20" s="40"/>
-      <c r="J20" s="238"/>
-      <c r="K20" s="253"/>
-      <c r="L20" s="253"/>
-      <c r="M20" s="253"/>
+      <c r="J20" s="237"/>
+      <c r="K20" s="252"/>
+      <c r="L20" s="252"/>
+      <c r="M20" s="252"/>
       <c r="N20" s="108"/>
-      <c r="O20" s="238"/>
-      <c r="P20" s="253"/>
-      <c r="Q20" s="253"/>
-      <c r="R20" s="253"/>
+      <c r="O20" s="237"/>
+      <c r="P20" s="252"/>
+      <c r="Q20" s="252"/>
+      <c r="R20" s="252"/>
       <c r="S20" s="108"/>
       <c r="T20" s="107"/>
       <c r="U20" s="11">
@@ -5270,16 +5246,16 @@
       <c r="G21" s="22"/>
       <c r="H21" s="24"/>
       <c r="I21" s="43"/>
-      <c r="J21" s="244"/>
-      <c r="K21" s="259"/>
-      <c r="L21" s="259"/>
-      <c r="M21" s="259"/>
-      <c r="N21" s="270"/>
-      <c r="O21" s="244"/>
-      <c r="P21" s="259"/>
-      <c r="Q21" s="259"/>
-      <c r="R21" s="259"/>
-      <c r="S21" s="270"/>
+      <c r="J21" s="243"/>
+      <c r="K21" s="258"/>
+      <c r="L21" s="258"/>
+      <c r="M21" s="258"/>
+      <c r="N21" s="269"/>
+      <c r="O21" s="243"/>
+      <c r="P21" s="258"/>
+      <c r="Q21" s="258"/>
+      <c r="R21" s="258"/>
+      <c r="S21" s="269"/>
       <c r="T21" s="49"/>
       <c r="U21" s="24"/>
       <c r="V21" s="43">
@@ -5310,15 +5286,15 @@
       <c r="I22" s="103" t="b">
         <v>1</v>
       </c>
-      <c r="J22" s="245"/>
-      <c r="K22" s="260"/>
-      <c r="L22" s="260"/>
-      <c r="M22" s="260"/>
+      <c r="J22" s="244"/>
+      <c r="K22" s="259"/>
+      <c r="L22" s="259"/>
+      <c r="M22" s="259"/>
       <c r="N22" s="103"/>
-      <c r="O22" s="245"/>
-      <c r="P22" s="260"/>
-      <c r="Q22" s="260"/>
-      <c r="R22" s="260"/>
+      <c r="O22" s="244"/>
+      <c r="P22" s="259"/>
+      <c r="Q22" s="259"/>
+      <c r="R22" s="259"/>
       <c r="S22" s="103"/>
       <c r="T22" s="101"/>
       <c r="U22" s="104"/>
@@ -5349,16 +5325,16 @@
       <c r="I23" s="51">
         <v>1</v>
       </c>
-      <c r="J23" s="246"/>
-      <c r="K23" s="261"/>
-      <c r="L23" s="261"/>
-      <c r="M23" s="261"/>
-      <c r="N23" s="271"/>
-      <c r="O23" s="246"/>
-      <c r="P23" s="261"/>
-      <c r="Q23" s="261"/>
-      <c r="R23" s="261"/>
-      <c r="S23" s="271"/>
+      <c r="J23" s="245"/>
+      <c r="K23" s="260"/>
+      <c r="L23" s="260"/>
+      <c r="M23" s="260"/>
+      <c r="N23" s="270"/>
+      <c r="O23" s="245"/>
+      <c r="P23" s="260"/>
+      <c r="Q23" s="260"/>
+      <c r="R23" s="260"/>
+      <c r="S23" s="270"/>
       <c r="T23" s="50"/>
       <c r="U23" s="19"/>
       <c r="V23" s="51"/>
@@ -5390,16 +5366,16 @@
       </c>
       <c r="H24" s="44"/>
       <c r="I24" s="45"/>
-      <c r="J24" s="247"/>
-      <c r="K24" s="262"/>
-      <c r="L24" s="262"/>
-      <c r="M24" s="262"/>
-      <c r="N24" s="272"/>
-      <c r="O24" s="247"/>
-      <c r="P24" s="262"/>
-      <c r="Q24" s="262"/>
-      <c r="R24" s="262"/>
-      <c r="S24" s="272"/>
+      <c r="J24" s="246"/>
+      <c r="K24" s="261"/>
+      <c r="L24" s="261"/>
+      <c r="M24" s="261"/>
+      <c r="N24" s="271"/>
+      <c r="O24" s="246"/>
+      <c r="P24" s="261"/>
+      <c r="Q24" s="261"/>
+      <c r="R24" s="261"/>
+      <c r="S24" s="271"/>
       <c r="T24" s="52"/>
       <c r="U24" s="44">
         <v>3</v>
@@ -5438,34 +5414,34 @@
       <c r="I25" s="217" t="b">
         <v>1</v>
       </c>
-      <c r="J25" s="283" t="b">
+      <c r="J25" s="281" t="b">
         <v>1</v>
       </c>
-      <c r="K25" s="275" t="b">
+      <c r="K25" s="274" t="b">
         <v>1</v>
       </c>
-      <c r="L25" s="275" t="b">
+      <c r="L25" s="274" t="b">
         <v>1</v>
       </c>
-      <c r="M25" s="275" t="b">
+      <c r="M25" s="274" t="b">
         <v>1</v>
       </c>
-      <c r="N25" s="282" t="b">
+      <c r="N25" s="280" t="b">
         <v>1</v>
       </c>
-      <c r="O25" s="283" t="b">
+      <c r="O25" s="281" t="b">
         <v>1</v>
       </c>
-      <c r="P25" s="275" t="b">
+      <c r="P25" s="274" t="b">
         <v>1</v>
       </c>
-      <c r="Q25" s="275" t="b">
+      <c r="Q25" s="274" t="b">
         <v>1</v>
       </c>
-      <c r="R25" s="275" t="b">
+      <c r="R25" s="274" t="b">
         <v>1</v>
       </c>
-      <c r="S25" s="282" t="b">
+      <c r="S25" s="280" t="b">
         <v>1</v>
       </c>
       <c r="T25" s="213" t="b">
@@ -5512,34 +5488,34 @@
       <c r="I26" s="225" t="b">
         <v>0</v>
       </c>
-      <c r="J26" s="284" t="b">
+      <c r="J26" s="282" t="b">
         <v>0</v>
       </c>
-      <c r="K26" s="281" t="b">
+      <c r="K26" s="279" t="b">
         <v>0</v>
       </c>
-      <c r="L26" s="281" t="b">
+      <c r="L26" s="279" t="b">
         <v>0</v>
       </c>
-      <c r="M26" s="285" t="b">
+      <c r="M26" s="283" t="b">
         <v>0</v>
       </c>
-      <c r="N26" s="286" t="b">
+      <c r="N26" s="284" t="b">
         <v>0</v>
       </c>
-      <c r="O26" s="284" t="b">
+      <c r="O26" s="282" t="b">
         <v>0</v>
       </c>
-      <c r="P26" s="281" t="b">
+      <c r="P26" s="279" t="b">
         <v>0</v>
       </c>
-      <c r="Q26" s="281" t="b">
+      <c r="Q26" s="279" t="b">
         <v>0</v>
       </c>
-      <c r="R26" s="285" t="b">
+      <c r="R26" s="283" t="b">
         <v>0</v>
       </c>
-      <c r="S26" s="286" t="b">
+      <c r="S26" s="284" t="b">
         <v>0</v>
       </c>
       <c r="T26" s="221" t="b">
@@ -5563,13 +5539,13 @@
     </row>
     <row r="27" spans="2:25" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B28" s="316" t="s">
+      <c r="B28" s="314" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="316"/>
-      <c r="D28" s="316"/>
-      <c r="E28" s="316"/>
-      <c r="F28" s="316"/>
+      <c r="C28" s="314"/>
+      <c r="D28" s="314"/>
+      <c r="E28" s="314"/>
+      <c r="F28" s="314"/>
     </row>
     <row r="29" spans="2:25" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="2:25" x14ac:dyDescent="0.25">
@@ -5578,10 +5554,10 @@
       </c>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
-      <c r="E30" s="315" t="s">
+      <c r="E30" s="313" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="315"/>
+      <c r="F30" s="313"/>
     </row>
   </sheetData>
   <mergeCells count="8">
